--- a/excel.xlsx
+++ b/excel.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\py_projects\Tink\tink_account\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Aleksey\PycharmProjects\tink_account\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{28AF55F5-EE65-47FB-A1D8-0F2A7D6CC03F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B4637C1B-0A7F-4A1C-8DE8-5B016F263BBA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" firstSheet="13" activeTab="15" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="21820" windowHeight="13900" firstSheet="15" activeTab="16" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Описание" sheetId="1" r:id="rId1"/>
@@ -29,6 +29,8 @@
     <sheet name="2023-05-01 - 2023-06-01" sheetId="14" r:id="rId14"/>
     <sheet name="2023-05-01 - 2023-06-011" sheetId="15" r:id="rId15"/>
     <sheet name="2023-06-01 - 2023-07-01" sheetId="16" r:id="rId16"/>
+    <sheet name="2023-06-01 - 2023-07-011" sheetId="17" r:id="rId17"/>
+    <sheet name="2023-06-01 - 2023-07-012" sheetId="18" r:id="rId18"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">'2022-04-01 - 2022-04-30'!$A$1:$B$1</definedName>
@@ -47,12 +49,23 @@
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Описание!$A$1:$D$71</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">'Пример редактиров05-01 - 05-301'!$A$1:$B$32</definedName>
   </definedNames>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="976" uniqueCount="447">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1118" uniqueCount="453">
   <si>
     <t>Описание</t>
   </si>
@@ -1286,112 +1299,72 @@
     <t>Телефон/интернет/метро/парикмахерская</t>
   </si>
   <si>
-    <t>Оплата в RSM 26 Gorod Moskva RUS 1118</t>
-  </si>
-  <si>
-    <t>['30.06.2023']</t>
+    <t>['30.06.2023', '26.06.2023', '26.06.2023', '26.06.2023', '16.06.2023']</t>
+  </si>
+  <si>
+    <t>['10.06.2023']</t>
+  </si>
+  <si>
+    <t>['09.06.2023']</t>
+  </si>
+  <si>
+    <t>['02.06.2023']</t>
   </si>
   <si>
     <t>Оплата в CITYDRIVE Gorod Moskva
 RUS1118</t>
   </si>
   <si>
+    <t>['30.06.2023']</t>
+  </si>
+  <si>
+    <t>Оплата в PRODUKTY-FRUKTY Gorod
+Moskva RUS1118</t>
+  </si>
+  <si>
+    <t>['11.06.2023']</t>
+  </si>
+  <si>
+    <t>Оплата в EUROSPAR Gorod Moskva
+RUS1118</t>
+  </si>
+  <si>
+    <t>Оплата в SPAR 352 Gorod Moskva
+RUS1118</t>
+  </si>
+  <si>
+    <t>['21.06.2023']</t>
+  </si>
+  <si>
+    <t>['25.06.2023']</t>
+  </si>
+  <si>
+    <t>['28.06.2023', '19.06.2023', '15.06.2023', '02.06.2023']</t>
+  </si>
+  <si>
+    <t>['29.06.2023', '25.06.2023', '17.06.2023']</t>
+  </si>
+  <si>
+    <t>Оплата в RSM 26 Gorod Moskva RUS 1118</t>
+  </si>
+  <si>
+    <t>['06.06.2023', '06.06.2023']</t>
+  </si>
+  <si>
+    <t>['14.06.2023']</t>
+  </si>
+  <si>
     <t>Оплата в TINKOFF.MOVIE Moskva
 RUS9857</t>
   </si>
   <si>
-    <t>['30.06.2023', '26.06.2023', '26.06.2023', '26.06.2023', '16.06.2023']</t>
-  </si>
-  <si>
-    <t>['30.06.2023', '28.06.2023', '23.06.2023', '22.06.2023', '21.06.2023', '20.06.2023', '19.06.2023', '16.06.2023', '15.06.2023', '14.06.2023', '13.06.2023', '09.06.2023', '08.06.2023', '07.06.2023', '06.06.2023', '05.06.2023', '02.06.2023', '01.06.2023']</t>
-  </si>
-  <si>
-    <t>['29.06.2023', '25.06.2023', '17.06.2023']</t>
-  </si>
-  <si>
-    <t>['29.06.2023', '26.06.2023', '25.06.2023', '24.06.2023', '23.06.2023', '23.06.2023', '20.06.2023', '17.06.2023', '14.06.2023', '10.06.2023', '08.06.2023', '04.06.2023']</t>
+    <t>['11.06.2023', '04.06.2023']</t>
   </si>
   <si>
     <t>['29.06.2023', '12.06.2023']</t>
   </si>
   <si>
-    <t>['28.06.2023', '26.06.2023', '25.06.2023', '15.06.2023', '14.06.2023', '13.06.2023', '06.06.2023', '05.06.2023', '04.06.2023', '01.06.2023']</t>
-  </si>
-  <si>
-    <t>['28.06.2023', '19.06.2023', '15.06.2023', '02.06.2023']</t>
-  </si>
-  <si>
-    <t>['25.06.2023']</t>
-  </si>
-  <si>
-    <t>Оплата в YANDEX*5814*DC Moscow
-RUS1118</t>
-  </si>
-  <si>
-    <t>['24.06.2023']</t>
-  </si>
-  <si>
-    <t>['23.06.2023', '23.06.2023', '07.06.2023', '04.06.2023', '01.06.2023']</t>
-  </si>
-  <si>
-    <t>['21.06.2023']</t>
-  </si>
-  <si>
-    <t>Внутренний перевод на договор
-58655972069857</t>
-  </si>
-  <si>
-    <t>['20.06.2023']</t>
-  </si>
-  <si>
     <t>['18.06.2023', '18.06.2023', '11.06.2023', '04.06.2023']</t>
-  </si>
-  <si>
-    <t>Снятие наличных. Тинькофф Банк,
-2697 Москва Россия1118</t>
-  </si>
-  <si>
-    <t>['17.06.2023']</t>
-  </si>
-  <si>
-    <t>['14.06.2023']</t>
-  </si>
-  <si>
-    <t>['13.06.2023']</t>
-  </si>
-  <si>
-    <t>Оплата в SPAR 352 Gorod Moskva
-RUS1118</t>
-  </si>
-  <si>
-    <t>['11.06.2023']</t>
-  </si>
-  <si>
-    <t>Оплата в EUROSPAR Gorod Moskva
-RUS1118</t>
-  </si>
-  <si>
-    <t>Оплата в PRODUKTY-FRUKTY Gorod
-Moskva RUS1118</t>
-  </si>
-  <si>
-    <t>['11.06.2023', '04.06.2023']</t>
-  </si>
-  <si>
-    <t>['10.06.2023']</t>
-  </si>
-  <si>
-    <t>Оплата в DAV BUBBLE TEA PARNIK
-Gorod Moskva RUS1118</t>
-  </si>
-  <si>
-    <t>['10.06.2023', '10.06.2023']</t>
-  </si>
-  <si>
-    <t>['09.06.2023']</t>
-  </si>
-  <si>
-    <t>['06.06.2023', '06.06.2023']</t>
   </si>
   <si>
     <t>Оплата в DODO PIZZA Gorod Moskva
@@ -1399,10 +1372,6 @@
   </si>
   <si>
     <t>['03.06.2023']</t>
-  </si>
-  <si>
-    <t>Внешний перевод по номеру
-телефона +791857052289857</t>
   </si>
   <si>
     <t>Оплата в X5 DIGITAL LOYALTY Gorod
@@ -1417,13 +1386,75 @@
 карты3</t>
   </si>
   <si>
-    <t>['02.06.2023']</t>
+    <t>Внутренний перевод на договор
+58655972069857</t>
+  </si>
+  <si>
+    <t>['20.06.2023']</t>
+  </si>
+  <si>
+    <t>Оплата в DAV BUBBLE TEA PARNIK
+Gorod Moskva RUS1118</t>
+  </si>
+  <si>
+    <t>['10.06.2023', '10.06.2023']</t>
+  </si>
+  <si>
+    <t>['13.06.2023']</t>
+  </si>
+  <si>
+    <t>Оплата в YANDEX*5814*DC Moscow
+RUS1118</t>
+  </si>
+  <si>
+    <t>['24.06.2023']</t>
+  </si>
+  <si>
+    <t>Снятие наличных. Тинькофф Банк,
+2697 Москва Россия1118</t>
+  </si>
+  <si>
+    <t>['17.06.2023']</t>
+  </si>
+  <si>
+    <t>Внешний перевод по номеру
+телефона +791857052289857</t>
+  </si>
+  <si>
+    <t>['23.06.2023', '23.06.2023', '07.06.2023', '04.06.2023', '01.06.2023']</t>
+  </si>
+  <si>
+    <t>['30.06.2023', '28.06.2023', '23.06.2023', '22.06.2023', '21.06.2023', '20.06.2023', '19.06.2023', '16.06.2023', '15.06.2023', '14.06.2023', '13.06.2023', '09.06.2023', '08.06.2023', '07.06.2023', '06.06.2023', '05.06.2023', '02.06.2023', '01.06.2023']</t>
+  </si>
+  <si>
+    <t>['28.06.2023', '26.06.2023', '25.06.2023', '15.06.2023', '14.06.2023', '13.06.2023', '06.06.2023', '05.06.2023', '04.06.2023', '01.06.2023']</t>
+  </si>
+  <si>
+    <t>['29.06.2023', '26.06.2023', '25.06.2023', '24.06.2023', '23.06.2023', '23.06.2023', '20.06.2023', '17.06.2023', '14.06.2023', '10.06.2023', '08.06.2023', '04.06.2023']</t>
   </si>
   <si>
     <t>Каршеринг</t>
   </si>
   <si>
     <t>Хлам потерянные деньги</t>
+  </si>
+  <si>
+    <t>CITYDRIVE</t>
+  </si>
+  <si>
+    <t>5ка/Перекресток</t>
+  </si>
+  <si>
+    <t>['23.06.2023', '23.06.2023', '07.06.2023', '04.06.2023', '02.06.2023', '02.06.2023', '01.06.2023']</t>
+  </si>
+  <si>
+    <t>EUROSPAR</t>
+  </si>
+  <si>
+    <t>['11.06.2023', '11.06.2023']</t>
+  </si>
+  <si>
+    <t>Женек работа</t>
   </si>
 </sst>
 </file>
@@ -1458,7 +1489,7 @@
       <charset val="204"/>
     </font>
   </fonts>
-  <fills count="14">
+  <fills count="16">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1537,6 +1568,18 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor rgb="FFFFFF00"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFAEBD7"/>
+        <bgColor rgb="FFFAEBD7"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="4">
     <border>
@@ -1589,7 +1632,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="61">
+  <cellXfs count="63">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
@@ -1705,6 +1748,8 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -2013,14 +2058,14 @@
       <selection activeCell="C54" sqref="C54"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="52.77734375" customWidth="1"/>
-    <col min="2" max="2" width="12.5546875" customWidth="1"/>
-    <col min="3" max="3" width="21.44140625" customWidth="1"/>
+    <col min="1" max="1" width="52.81640625" customWidth="1"/>
+    <col min="2" max="2" width="12.54296875" customWidth="1"/>
+    <col min="3" max="3" width="21.453125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2031,7 +2076,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A2" s="2" t="s">
         <v>3</v>
       </c>
@@ -2042,7 +2087,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>5</v>
       </c>
@@ -2056,7 +2101,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A4" s="2" t="s">
         <v>8</v>
       </c>
@@ -2067,7 +2112,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A5" s="2" t="s">
         <v>10</v>
       </c>
@@ -2078,7 +2123,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A6" s="2" t="s">
         <v>12</v>
       </c>
@@ -2089,7 +2134,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A7" s="2" t="s">
         <v>14</v>
       </c>
@@ -2100,7 +2145,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A8" s="2" t="s">
         <v>16</v>
       </c>
@@ -2111,7 +2156,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A9" s="2" t="s">
         <v>18</v>
       </c>
@@ -2122,7 +2167,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A10" s="2" t="s">
         <v>19</v>
       </c>
@@ -2133,7 +2178,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A11" s="2" t="s">
         <v>20</v>
       </c>
@@ -2144,7 +2189,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
         <v>22</v>
       </c>
@@ -2155,7 +2200,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
         <v>24</v>
       </c>
@@ -2166,7 +2211,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A14" s="2" t="s">
         <v>25</v>
       </c>
@@ -2177,7 +2222,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A15" s="2" t="s">
         <v>27</v>
       </c>
@@ -2188,7 +2233,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A16" s="2" t="s">
         <v>29</v>
       </c>
@@ -2199,7 +2244,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A17" s="2" t="s">
         <v>31</v>
       </c>
@@ -2210,7 +2255,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A18" s="2" t="s">
         <v>33</v>
       </c>
@@ -2221,7 +2266,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A19" s="2" t="s">
         <v>35</v>
       </c>
@@ -2232,7 +2277,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A20" s="2" t="s">
         <v>37</v>
       </c>
@@ -2243,7 +2288,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A21" s="2" t="s">
         <v>39</v>
       </c>
@@ -2254,7 +2299,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
         <v>41</v>
       </c>
@@ -2265,7 +2310,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A23" s="2" t="s">
         <v>43</v>
       </c>
@@ -2276,7 +2321,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A24" s="2" t="s">
         <v>45</v>
       </c>
@@ -2287,7 +2332,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A25" s="2" t="s">
         <v>47</v>
       </c>
@@ -2298,7 +2343,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A26" s="2" t="s">
         <v>48</v>
       </c>
@@ -2309,7 +2354,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A27" t="s">
         <v>49</v>
       </c>
@@ -2320,7 +2365,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A28" s="2" t="s">
         <v>51</v>
       </c>
@@ -2331,7 +2376,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A29" t="s">
         <v>53</v>
       </c>
@@ -2342,7 +2387,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A30" s="2" t="s">
         <v>55</v>
       </c>
@@ -2353,7 +2398,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A31" s="2" t="s">
         <v>57</v>
       </c>
@@ -2364,7 +2409,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A32" s="2" t="s">
         <v>58</v>
       </c>
@@ -2375,7 +2420,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A33" s="2" t="s">
         <v>59</v>
       </c>
@@ -2386,7 +2431,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A34" s="2" t="s">
         <v>60</v>
       </c>
@@ -2397,7 +2442,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A35" s="2" t="s">
         <v>62</v>
       </c>
@@ -2408,7 +2453,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A36" s="2" t="s">
         <v>63</v>
       </c>
@@ -2419,7 +2464,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A37" s="2" t="s">
         <v>65</v>
       </c>
@@ -2430,7 +2475,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A38" s="2" t="s">
         <v>66</v>
       </c>
@@ -2441,7 +2486,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A39" t="s">
         <v>67</v>
       </c>
@@ -2452,7 +2497,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A40" s="2" t="s">
         <v>68</v>
       </c>
@@ -2463,7 +2508,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A41" t="s">
         <v>70</v>
       </c>
@@ -2474,7 +2519,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A42" s="2" t="s">
         <v>72</v>
       </c>
@@ -2485,7 +2530,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A43" s="2" t="s">
         <v>74</v>
       </c>
@@ -2496,7 +2541,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A44" s="2" t="s">
         <v>76</v>
       </c>
@@ -2507,7 +2552,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A45" t="s">
         <v>78</v>
       </c>
@@ -2518,7 +2563,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A46" s="2" t="s">
         <v>79</v>
       </c>
@@ -2529,7 +2574,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A47" s="2" t="s">
         <v>81</v>
       </c>
@@ -2540,7 +2585,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A48" t="s">
         <v>82</v>
       </c>
@@ -2551,7 +2596,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A49" s="2" t="s">
         <v>83</v>
       </c>
@@ -2562,7 +2607,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A50" s="2" t="s">
         <v>84</v>
       </c>
@@ -2573,7 +2618,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A51" s="2" t="s">
         <v>85</v>
       </c>
@@ -2584,7 +2629,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A52" s="2" t="s">
         <v>86</v>
       </c>
@@ -2595,7 +2640,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A53" s="2" t="s">
         <v>87</v>
       </c>
@@ -2606,7 +2651,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A54" s="2" t="s">
         <v>89</v>
       </c>
@@ -2617,7 +2662,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A55" s="2" t="s">
         <v>91</v>
       </c>
@@ -2628,7 +2673,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="56" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A56" s="2" t="s">
         <v>92</v>
       </c>
@@ -2639,7 +2684,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="57" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A57" t="s">
         <v>93</v>
       </c>
@@ -2650,7 +2695,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="58" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A58" s="2" t="s">
         <v>94</v>
       </c>
@@ -2661,7 +2706,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="59" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A59" t="s">
         <v>95</v>
       </c>
@@ -2672,7 +2717,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="60" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A60" t="s">
         <v>97</v>
       </c>
@@ -2683,7 +2728,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="61" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A61" s="2" t="s">
         <v>98</v>
       </c>
@@ -2694,7 +2739,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="62" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A62" t="s">
         <v>99</v>
       </c>
@@ -2705,7 +2750,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="63" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A63" s="2" t="s">
         <v>101</v>
       </c>
@@ -2716,7 +2761,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="64" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A64" t="s">
         <v>102</v>
       </c>
@@ -2727,7 +2772,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="65" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A65" s="2" t="s">
         <v>103</v>
       </c>
@@ -2738,7 +2783,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="66" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A66" s="2" t="s">
         <v>104</v>
       </c>
@@ -2749,7 +2794,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="67" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A67" s="2" t="s">
         <v>105</v>
       </c>
@@ -2760,7 +2805,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="68" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A68" s="2" t="s">
         <v>106</v>
       </c>
@@ -2771,7 +2816,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="69" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A69" s="2" t="s">
         <v>108</v>
       </c>
@@ -2782,7 +2827,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="70" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A70" t="s">
         <v>109</v>
       </c>
@@ -2793,7 +2838,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="71" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A71" s="2" t="s">
         <v>111</v>
       </c>
@@ -2819,15 +2864,15 @@
       <selection activeCell="B42" sqref="B42"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="49.77734375" customWidth="1"/>
-    <col min="2" max="2" width="29.33203125" customWidth="1"/>
+    <col min="1" max="1" width="49.81640625" customWidth="1"/>
+    <col min="2" max="2" width="29.36328125" customWidth="1"/>
     <col min="5" max="5" width="12" style="10" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="15" style="10" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -2841,7 +2886,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>111</v>
       </c>
@@ -2857,7 +2902,7 @@
         <v>89500</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>107</v>
       </c>
@@ -2873,7 +2918,7 @@
         <v>27500</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>109</v>
       </c>
@@ -2889,7 +2934,7 @@
         <v>1063</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>95</v>
       </c>
@@ -2905,7 +2950,7 @@
         <v>499</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>97</v>
       </c>
@@ -2921,7 +2966,7 @@
         <v>395</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>212</v>
       </c>
@@ -2937,7 +2982,7 @@
         <v>158.97</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>213</v>
       </c>
@@ -2953,7 +2998,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>93</v>
       </c>
@@ -2969,7 +3014,7 @@
         <v>97.11</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>197</v>
       </c>
@@ -2985,7 +3030,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>204</v>
       </c>
@@ -3001,7 +3046,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
         <v>13</v>
       </c>
@@ -3017,7 +3062,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
         <v>80</v>
       </c>
@@ -3033,7 +3078,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
         <v>122</v>
       </c>
@@ -3049,7 +3094,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A15" s="5" t="s">
         <v>223</v>
       </c>
@@ -3065,7 +3110,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A16" s="5" t="s">
         <v>179</v>
       </c>
@@ -3081,7 +3126,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
         <v>224</v>
       </c>
@@ -3097,7 +3142,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
         <v>198</v>
       </c>
@@ -3113,7 +3158,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
         <v>225</v>
       </c>
@@ -3129,7 +3174,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
         <v>152</v>
       </c>
@@ -3145,7 +3190,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
         <v>46</v>
       </c>
@@ -3161,7 +3206,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
         <v>226</v>
       </c>
@@ -3177,7 +3222,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A23" s="5" t="s">
         <v>227</v>
       </c>
@@ -3193,7 +3238,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A24" s="5" t="s">
         <v>186</v>
       </c>
@@ -3209,7 +3254,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
         <v>119</v>
       </c>
@@ -3225,7 +3270,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A26" t="s">
         <v>209</v>
       </c>
@@ -3241,7 +3286,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A27" t="s">
         <v>219</v>
       </c>
@@ -3257,7 +3302,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A28" t="s">
         <v>228</v>
       </c>
@@ -3273,7 +3318,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A29" t="s">
         <v>30</v>
       </c>
@@ -3289,7 +3334,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A30" t="s">
         <v>229</v>
       </c>
@@ -3305,7 +3350,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A31" t="s">
         <v>230</v>
       </c>
@@ -3321,7 +3366,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A32" t="s">
         <v>181</v>
       </c>
@@ -3337,7 +3382,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A33" t="s">
         <v>34</v>
       </c>
@@ -3353,7 +3398,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A34" t="s">
         <v>222</v>
       </c>
@@ -3369,7 +3414,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A35" t="s">
         <v>26</v>
       </c>
@@ -3385,7 +3430,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A36" t="s">
         <v>231</v>
       </c>
@@ -3401,7 +3446,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A37" t="s">
         <v>232</v>
       </c>
@@ -3417,7 +3462,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A38" t="s">
         <v>5</v>
       </c>
@@ -3434,7 +3479,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.35">
       <c r="E39" s="10">
         <f>SUM(E2:E38)</f>
         <v>-113166.13</v>
@@ -3444,7 +3489,7 @@
         <v>119330.08</v>
       </c>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A41" s="24" t="s">
         <v>190</v>
       </c>
@@ -3453,7 +3498,7 @@
         <v>-27451.98</v>
       </c>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A42" s="24" t="s">
         <v>26</v>
       </c>
@@ -3462,7 +3507,7 @@
         <v>-6592.24</v>
       </c>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A43" s="24" t="s">
         <v>191</v>
       </c>
@@ -3486,15 +3531,15 @@
       <selection activeCell="I46" sqref="I46"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="45.21875" customWidth="1"/>
-    <col min="2" max="2" width="20.33203125" customWidth="1"/>
-    <col min="5" max="5" width="13.109375" style="10" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="45.1796875" customWidth="1"/>
+    <col min="2" max="2" width="20.36328125" customWidth="1"/>
+    <col min="5" max="5" width="13.08984375" style="10" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="15" style="10" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -3508,7 +3553,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>109</v>
       </c>
@@ -3524,7 +3569,7 @@
         <v>76800</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>107</v>
       </c>
@@ -3540,7 +3585,7 @@
         <v>27500</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>34</v>
       </c>
@@ -3556,7 +3601,7 @@
         <v>10000</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>111</v>
       </c>
@@ -3572,7 +3617,7 @@
         <v>9000</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>97</v>
       </c>
@@ -3588,7 +3633,7 @@
         <v>296</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>93</v>
       </c>
@@ -3604,7 +3649,7 @@
         <v>19.5</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>13</v>
       </c>
@@ -3620,7 +3665,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>233</v>
       </c>
@@ -3636,7 +3681,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A10" s="3" t="s">
         <v>80</v>
       </c>
@@ -3652,7 +3697,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>197</v>
       </c>
@@ -3668,7 +3713,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A12" s="7" t="s">
         <v>234</v>
       </c>
@@ -3684,7 +3729,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A13" s="3" t="s">
         <v>235</v>
       </c>
@@ -3700,7 +3745,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A14" s="3" t="s">
         <v>236</v>
       </c>
@@ -3716,7 +3761,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A15" s="3" t="s">
         <v>237</v>
       </c>
@@ -3732,7 +3777,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A16" s="3" t="s">
         <v>238</v>
       </c>
@@ -3748,7 +3793,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
         <v>239</v>
       </c>
@@ -3764,7 +3809,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
         <v>189</v>
       </c>
@@ -3780,7 +3825,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
         <v>240</v>
       </c>
@@ -3796,7 +3841,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A20" s="3" t="s">
         <v>241</v>
       </c>
@@ -3812,7 +3857,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A21" s="3" t="s">
         <v>122</v>
       </c>
@@ -3828,7 +3873,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
         <v>152</v>
       </c>
@@ -3844,7 +3889,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
         <v>225</v>
       </c>
@@ -3860,7 +3905,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A24" s="3" t="s">
         <v>242</v>
       </c>
@@ -3876,7 +3921,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A25" s="3" t="s">
         <v>119</v>
       </c>
@@ -3892,7 +3937,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A26" s="7" t="s">
         <v>209</v>
       </c>
@@ -3908,7 +3953,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A27" s="3" t="s">
         <v>90</v>
       </c>
@@ -3924,7 +3969,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A28" t="s">
         <v>38</v>
       </c>
@@ -3940,7 +3985,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A29" s="3" t="s">
         <v>30</v>
       </c>
@@ -3956,7 +4001,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A30" t="s">
         <v>32</v>
       </c>
@@ -3972,7 +4017,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A31" t="s">
         <v>243</v>
       </c>
@@ -3988,7 +4033,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A32" t="s">
         <v>244</v>
       </c>
@@ -4004,7 +4049,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A33" s="7" t="s">
         <v>245</v>
       </c>
@@ -4020,7 +4065,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A34" t="s">
         <v>21</v>
       </c>
@@ -4036,7 +4081,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A35" s="7" t="s">
         <v>115</v>
       </c>
@@ -4052,7 +4097,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A36" s="2" t="s">
         <v>26</v>
       </c>
@@ -4068,7 +4113,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A37" t="s">
         <v>34</v>
       </c>
@@ -4084,7 +4129,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A38" t="s">
         <v>246</v>
       </c>
@@ -4100,7 +4145,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A39" s="3" t="s">
         <v>247</v>
       </c>
@@ -4116,7 +4161,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A40" s="7" t="s">
         <v>248</v>
       </c>
@@ -4132,7 +4177,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A41" t="s">
         <v>249</v>
       </c>
@@ -4148,7 +4193,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A42" t="s">
         <v>5</v>
       </c>
@@ -4164,7 +4209,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.35">
       <c r="E43" s="10">
         <f>SUM(E2:E42)</f>
         <v>-188443.32</v>
@@ -4174,7 +4219,7 @@
         <v>123615.5</v>
       </c>
     </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A44" s="24" t="s">
         <v>190</v>
       </c>
@@ -4183,7 +4228,7 @@
         <v>-20582.98</v>
       </c>
     </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A45" s="24" t="s">
         <v>26</v>
       </c>
@@ -4192,7 +4237,7 @@
         <v>-5183.6999999999989</v>
       </c>
     </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A46" s="24" t="s">
         <v>191</v>
       </c>
@@ -4201,7 +4246,7 @@
         <v>-37266.639999999999</v>
       </c>
     </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A47" s="24" t="s">
         <v>250</v>
       </c>
@@ -4228,16 +4273,16 @@
       <selection activeCell="E30" sqref="E30"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="36.88671875" customWidth="1"/>
-    <col min="2" max="2" width="17.33203125" style="10" customWidth="1"/>
-    <col min="3" max="3" width="17.88671875" style="48" customWidth="1"/>
-    <col min="5" max="5" width="13.109375" style="10" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="36.90625" customWidth="1"/>
+    <col min="2" max="2" width="17.36328125" style="10" customWidth="1"/>
+    <col min="3" max="3" width="17.90625" style="48" customWidth="1"/>
+    <col min="5" max="5" width="13.08984375" style="10" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="15" style="10" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -4254,7 +4299,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="100.8" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" ht="100.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>252</v>
       </c>
@@ -4273,7 +4318,7 @@
         <v>28050</v>
       </c>
     </row>
-    <row r="3" spans="1:6" ht="43.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" ht="43.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>254</v>
       </c>
@@ -4292,7 +4337,7 @@
         <v>21500</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>256</v>
       </c>
@@ -4311,7 +4356,7 @@
         <v>6000</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>258</v>
       </c>
@@ -4330,7 +4375,7 @@
         <v>1852</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>260</v>
       </c>
@@ -4349,7 +4394,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>262</v>
       </c>
@@ -4368,7 +4413,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>263</v>
       </c>
@@ -4387,7 +4432,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>265</v>
       </c>
@@ -4406,7 +4451,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>241</v>
       </c>
@@ -4425,7 +4470,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:6" ht="43.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:6" ht="43.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>122</v>
       </c>
@@ -4444,7 +4489,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:6" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:6" ht="28.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
         <v>268</v>
       </c>
@@ -4463,7 +4508,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
         <v>270</v>
       </c>
@@ -4482,7 +4527,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:6" ht="43.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:6" ht="43.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
         <v>272</v>
       </c>
@@ -4501,7 +4546,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
         <v>274</v>
       </c>
@@ -4520,7 +4565,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:6" ht="187.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:6" ht="187.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
         <v>276</v>
       </c>
@@ -4539,7 +4584,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:6" ht="43.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:6" ht="43.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
         <v>278</v>
       </c>
@@ -4558,7 +4603,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
         <v>280</v>
       </c>
@@ -4577,7 +4622,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
         <v>282</v>
       </c>
@@ -4596,7 +4641,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:6" ht="57.6" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:6" ht="57.65" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
         <v>119</v>
       </c>
@@ -4615,7 +4660,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:6" ht="316.8" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:6" ht="316.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
         <v>26</v>
       </c>
@@ -4634,7 +4679,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:6" ht="115.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:6" ht="115.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
         <v>247</v>
       </c>
@@ -4653,7 +4698,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.35">
       <c r="E23" s="10">
         <f>SUM(E2:E22)</f>
         <v>-38242.899999999994</v>
@@ -4663,7 +4708,7 @@
         <v>57402</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A26" s="24" t="s">
         <v>286</v>
       </c>
@@ -4672,7 +4717,7 @@
         <v>-15112.18</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A27" s="24" t="s">
         <v>26</v>
       </c>
@@ -4685,7 +4730,7 @@
         <v>19159.100000000006</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A28" s="24" t="s">
         <v>287</v>
       </c>
@@ -4694,7 +4739,7 @@
         <v>-2209</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A29" s="24" t="s">
         <v>288</v>
       </c>
@@ -4703,13 +4748,13 @@
         <v>-600</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A30" s="24" t="s">
         <v>289</v>
       </c>
       <c r="B30" s="22"/>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A31" s="24" t="s">
         <v>290</v>
       </c>
@@ -4718,7 +4763,7 @@
         <v>-8680</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A32" s="24" t="s">
         <v>291</v>
       </c>
@@ -4727,7 +4772,7 @@
         <v>-1026.56</v>
       </c>
     </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A33" s="23" t="s">
         <v>292</v>
       </c>
@@ -4736,7 +4781,7 @@
         <v>-600</v>
       </c>
     </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A36" t="s">
         <v>293</v>
       </c>
@@ -4745,7 +4790,7 @@
         <v>-35000</v>
       </c>
     </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A39" s="31" t="s">
         <v>294</v>
       </c>
@@ -4754,7 +4799,7 @@
         <v>-71201.899999999994</v>
       </c>
     </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A41" s="3" t="s">
         <v>295</v>
       </c>
@@ -4781,16 +4826,16 @@
       <selection activeCell="A42" sqref="A42:B56"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="43.44140625" customWidth="1"/>
-    <col min="2" max="2" width="22.6640625" style="11" customWidth="1"/>
-    <col min="3" max="3" width="21.5546875" style="48" customWidth="1"/>
-    <col min="5" max="5" width="13.109375" style="10" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="43.453125" customWidth="1"/>
+    <col min="2" max="2" width="22.6328125" style="11" customWidth="1"/>
+    <col min="3" max="3" width="21.54296875" style="48" customWidth="1"/>
+    <col min="5" max="5" width="13.08984375" style="10" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="15" style="10" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -4807,7 +4852,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="57.6" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" ht="57.65" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>296</v>
       </c>
@@ -4826,7 +4871,7 @@
         <v>138000</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>254</v>
       </c>
@@ -4845,7 +4890,7 @@
         <v>20000</v>
       </c>
     </row>
-    <row r="4" spans="1:6" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6" ht="28.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>252</v>
       </c>
@@ -4864,7 +4909,7 @@
         <v>14000</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>256</v>
       </c>
@@ -4883,7 +4928,7 @@
         <v>7500</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>258</v>
       </c>
@@ -4902,7 +4947,7 @@
         <v>334</v>
       </c>
     </row>
-    <row r="7" spans="1:6" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:6" ht="28.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>302</v>
       </c>
@@ -4921,7 +4966,7 @@
         <v>257.76</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>304</v>
       </c>
@@ -4940,7 +4985,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>306</v>
       </c>
@@ -4959,7 +5004,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>308</v>
       </c>
@@ -4978,7 +5023,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>309</v>
       </c>
@@ -4997,7 +5042,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
         <v>52</v>
       </c>
@@ -5016,7 +5061,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:6" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:6" ht="28.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
         <v>88</v>
       </c>
@@ -5035,7 +5080,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
         <v>122</v>
       </c>
@@ -5054,7 +5099,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
         <v>241</v>
       </c>
@@ -5073,7 +5118,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
         <v>312</v>
       </c>
@@ -5092,7 +5137,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
         <v>314</v>
       </c>
@@ -5111,7 +5156,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
         <v>32</v>
       </c>
@@ -5130,7 +5175,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
         <v>270</v>
       </c>
@@ -5149,7 +5194,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:6" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:6" ht="28.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
         <v>317</v>
       </c>
@@ -5168,7 +5213,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:6" ht="100.8" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:6" ht="100.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
         <v>276</v>
       </c>
@@ -5187,7 +5232,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:6" ht="43.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:6" ht="43.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
         <v>268</v>
       </c>
@@ -5206,7 +5251,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:6" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:6" ht="28.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
         <v>11</v>
       </c>
@@ -5225,7 +5270,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
         <v>322</v>
       </c>
@@ -5244,7 +5289,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
         <v>324</v>
       </c>
@@ -5263,7 +5308,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:6" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:6" ht="28.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A26" t="s">
         <v>326</v>
       </c>
@@ -5282,7 +5327,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A27" t="s">
         <v>328</v>
       </c>
@@ -5301,7 +5346,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A28" t="s">
         <v>330</v>
       </c>
@@ -5320,7 +5365,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:6" ht="72" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:6" ht="72" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A29" t="s">
         <v>46</v>
       </c>
@@ -5339,7 +5384,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A30" t="s">
         <v>333</v>
       </c>
@@ -5358,7 +5403,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:6" ht="43.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:6" ht="43.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A31" t="s">
         <v>334</v>
       </c>
@@ -5377,7 +5422,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A32" t="s">
         <v>336</v>
       </c>
@@ -5396,7 +5441,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:6" ht="115.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:6" ht="115.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A33" t="s">
         <v>119</v>
       </c>
@@ -5415,7 +5460,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:6" ht="259.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:6" ht="259.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A34" t="s">
         <v>26</v>
       </c>
@@ -5434,7 +5479,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A35" t="s">
         <v>339</v>
       </c>
@@ -5453,7 +5498,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:6" ht="187.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:6" ht="187.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A36" t="s">
         <v>247</v>
       </c>
@@ -5472,7 +5517,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:6" ht="57.6" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:6" ht="57.65" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A37" t="s">
         <v>278</v>
       </c>
@@ -5491,7 +5536,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:6" ht="57.6" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:6" ht="57.65" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A38" t="s">
         <v>343</v>
       </c>
@@ -5510,7 +5555,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:6" ht="57.6" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:6" ht="57.65" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A39" t="s">
         <v>345</v>
       </c>
@@ -5529,7 +5574,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.35">
       <c r="E40" s="10">
         <f>SUM(E2:E39)</f>
         <v>-156064.29</v>
@@ -5539,7 +5584,7 @@
         <v>180091.76</v>
       </c>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A42" s="24" t="s">
         <v>286</v>
       </c>
@@ -5548,7 +5593,7 @@
         <v>-23330.440000000002</v>
       </c>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A43" s="24" t="s">
         <v>26</v>
       </c>
@@ -5557,7 +5602,7 @@
         <v>-7428.2999999999993</v>
       </c>
     </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A44" s="24" t="s">
         <v>287</v>
       </c>
@@ -5570,7 +5615,7 @@
         <v>24027.47</v>
       </c>
     </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A45" s="24" t="s">
         <v>288</v>
       </c>
@@ -5579,7 +5624,7 @@
         <v>-2000</v>
       </c>
     </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A46" s="24" t="s">
         <v>289</v>
       </c>
@@ -5588,7 +5633,7 @@
         <v>-32238</v>
       </c>
     </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A47" s="24" t="s">
         <v>290</v>
       </c>
@@ -5597,7 +5642,7 @@
         <v>-14566.96</v>
       </c>
     </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A48" s="24" t="s">
         <v>291</v>
       </c>
@@ -5606,7 +5651,7 @@
         <v>-681.03</v>
       </c>
     </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A49" s="23" t="s">
         <v>292</v>
       </c>
@@ -5615,7 +5660,7 @@
         <v>-750</v>
       </c>
     </row>
-    <row r="52" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A52" t="s">
         <v>293</v>
       </c>
@@ -5624,7 +5669,7 @@
         <v>-35000</v>
       </c>
     </row>
-    <row r="54" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A54" s="31" t="s">
         <v>294</v>
       </c>
@@ -5633,7 +5678,7 @@
         <v>-119184.26000000001</v>
       </c>
     </row>
-    <row r="56" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A56" s="3" t="s">
         <v>295</v>
       </c>
@@ -5660,19 +5705,19 @@
       <selection activeCell="B41" sqref="B41"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.90625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="30.33203125" style="48" customWidth="1"/>
-    <col min="2" max="2" width="14.33203125" style="48" customWidth="1"/>
-    <col min="3" max="3" width="35.77734375" style="48" customWidth="1"/>
-    <col min="4" max="4" width="8.88671875" style="48" customWidth="1"/>
+    <col min="1" max="1" width="30.36328125" style="48" customWidth="1"/>
+    <col min="2" max="2" width="14.36328125" style="48" customWidth="1"/>
+    <col min="3" max="3" width="35.81640625" style="48" customWidth="1"/>
+    <col min="4" max="4" width="8.90625" style="48" customWidth="1"/>
     <col min="5" max="5" width="12" style="48" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="20" style="48" customWidth="1"/>
-    <col min="7" max="9" width="8.88671875" style="48" customWidth="1"/>
-    <col min="10" max="16384" width="8.88671875" style="48"/>
+    <col min="7" max="11" width="8.90625" style="48" customWidth="1"/>
+    <col min="12" max="16384" width="8.90625" style="48"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A1" s="48" t="s">
         <v>0</v>
       </c>
@@ -5689,7 +5734,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" ht="28.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A2" s="48" t="s">
         <v>296</v>
       </c>
@@ -5708,7 +5753,7 @@
         <v>96000</v>
       </c>
     </row>
-    <row r="3" spans="1:6" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" ht="28.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A3" s="48" t="s">
         <v>254</v>
       </c>
@@ -5727,7 +5772,7 @@
         <v>80250</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A4" s="48" t="s">
         <v>252</v>
       </c>
@@ -5746,7 +5791,7 @@
         <v>6000</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A5" s="48" t="s">
         <v>258</v>
       </c>
@@ -5765,7 +5810,7 @@
         <v>786</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A6" s="48" t="s">
         <v>351</v>
       </c>
@@ -5784,7 +5829,7 @@
         <v>317.19</v>
       </c>
     </row>
-    <row r="7" spans="1:6" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:6" ht="28.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A7" s="48" t="s">
         <v>352</v>
       </c>
@@ -5803,7 +5848,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A8" s="48" t="s">
         <v>354</v>
       </c>
@@ -5822,7 +5867,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A9" s="48" t="s">
         <v>122</v>
       </c>
@@ -5841,7 +5886,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:6" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:6" ht="28.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A10" s="48" t="s">
         <v>263</v>
       </c>
@@ -5860,7 +5905,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A11" s="48" t="s">
         <v>358</v>
       </c>
@@ -5879,7 +5924,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A12" s="48" t="s">
         <v>306</v>
       </c>
@@ -5898,7 +5943,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A13" s="48" t="s">
         <v>11</v>
       </c>
@@ -5917,7 +5962,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A14" s="48" t="s">
         <v>276</v>
       </c>
@@ -5936,7 +5981,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:6" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:6" ht="28.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A15" s="48" t="s">
         <v>362</v>
       </c>
@@ -5955,7 +6000,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:6" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:6" ht="28.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A16" s="48" t="s">
         <v>363</v>
       </c>
@@ -5974,7 +6019,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A17" s="48" t="s">
         <v>268</v>
       </c>
@@ -5993,7 +6038,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:6" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:6" ht="28.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A18" s="48" t="s">
         <v>366</v>
       </c>
@@ -6012,7 +6057,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A19" s="48" t="s">
         <v>38</v>
       </c>
@@ -6031,7 +6076,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A20" s="48" t="s">
         <v>270</v>
       </c>
@@ -6050,7 +6095,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:6" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:6" ht="28.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A21" s="48" t="s">
         <v>369</v>
       </c>
@@ -6069,7 +6114,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A22" s="48" t="s">
         <v>324</v>
       </c>
@@ -6088,7 +6133,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A23" s="48" t="s">
         <v>46</v>
       </c>
@@ -6107,7 +6152,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A24" s="48" t="s">
         <v>343</v>
       </c>
@@ -6126,7 +6171,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A25" s="48" t="s">
         <v>241</v>
       </c>
@@ -6145,7 +6190,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A26" s="48" t="s">
         <v>90</v>
       </c>
@@ -6164,7 +6209,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A27" s="48" t="s">
         <v>247</v>
       </c>
@@ -6183,7 +6228,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:6" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:6" ht="28.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A28" s="48" t="s">
         <v>278</v>
       </c>
@@ -6202,7 +6247,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:6" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:6" ht="28.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A29" s="48" t="s">
         <v>378</v>
       </c>
@@ -6221,7 +6266,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:6" ht="86.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:6" ht="86.4" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A30" s="48" t="s">
         <v>26</v>
       </c>
@@ -6240,7 +6285,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:6" ht="86.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:6" ht="86.4" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A31" s="48" t="s">
         <v>328</v>
       </c>
@@ -6259,7 +6304,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:6" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:6" ht="28.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A32" s="48" t="s">
         <v>345</v>
       </c>
@@ -6278,7 +6323,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:6" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:6" ht="28.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A33" s="48" t="s">
         <v>336</v>
       </c>
@@ -6297,7 +6342,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.35">
       <c r="E34" s="33">
         <f>SUM(E2:E33)</f>
         <v>-132177.58000000002</v>
@@ -6307,7 +6352,7 @@
         <v>183375.19</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A36" s="34" t="s">
         <v>286</v>
       </c>
@@ -6316,7 +6361,7 @@
         <v>-17549.920000000002</v>
       </c>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A37" s="34" t="s">
         <v>26</v>
       </c>
@@ -6325,7 +6370,7 @@
         <v>-7805.4</v>
       </c>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A38" s="34" t="s">
         <v>287</v>
       </c>
@@ -6334,7 +6379,7 @@
         <v>-2887.89</v>
       </c>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A39" s="34" t="s">
         <v>288</v>
       </c>
@@ -6343,7 +6388,7 @@
         <v>-1400</v>
       </c>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A40" s="34" t="s">
         <v>289</v>
       </c>
@@ -6352,7 +6397,7 @@
         <v>-8580.5</v>
       </c>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A41" s="34" t="s">
         <v>290</v>
       </c>
@@ -6361,7 +6406,7 @@
         <v>-926</v>
       </c>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A42" s="34" t="s">
         <v>291</v>
       </c>
@@ -6370,7 +6415,7 @@
         <v>-487.87</v>
       </c>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A43" s="42" t="s">
         <v>292</v>
       </c>
@@ -6379,13 +6424,13 @@
         <v>-600</v>
       </c>
     </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.35">
       <c r="B44" s="49"/>
     </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.35">
       <c r="B45" s="49"/>
     </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A46" s="48" t="s">
         <v>293</v>
       </c>
@@ -6394,19 +6439,19 @@
         <v>-38115</v>
       </c>
     </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:6" x14ac:dyDescent="0.35">
       <c r="B47" s="49"/>
     </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A48" s="44" t="s">
         <v>294</v>
       </c>
       <c r="B48" s="45"/>
     </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:2" x14ac:dyDescent="0.35">
       <c r="B49" s="49"/>
     </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A50" s="46" t="s">
         <v>295</v>
       </c>
@@ -6430,17 +6475,17 @@
       <selection activeCell="B41" sqref="A41:B53"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="30.33203125" style="48" customWidth="1"/>
-    <col min="2" max="2" width="14.33203125" style="52" customWidth="1"/>
-    <col min="3" max="3" width="35.77734375" style="48" customWidth="1"/>
-    <col min="4" max="4" width="8.88671875" style="48" customWidth="1"/>
+    <col min="1" max="1" width="30.36328125" style="48" customWidth="1"/>
+    <col min="2" max="2" width="14.36328125" style="52" customWidth="1"/>
+    <col min="3" max="3" width="35.81640625" style="48" customWidth="1"/>
+    <col min="4" max="4" width="8.90625" style="48" customWidth="1"/>
     <col min="5" max="5" width="12" style="48" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="20" style="48" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A1" s="34" t="s">
         <v>0</v>
       </c>
@@ -6453,7 +6498,7 @@
       <c r="E1" s="33"/>
       <c r="F1" s="33"/>
     </row>
-    <row r="2" spans="1:6" ht="43.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" ht="43.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A2" s="34" t="s">
         <v>384</v>
       </c>
@@ -6466,7 +6511,7 @@
       <c r="E2" s="49"/>
       <c r="F2" s="49"/>
     </row>
-    <row r="3" spans="1:6" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" ht="28.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A3" s="34" t="s">
         <v>13</v>
       </c>
@@ -6479,7 +6524,7 @@
       <c r="E3" s="49"/>
       <c r="F3" s="49"/>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A4" s="34" t="s">
         <v>107</v>
       </c>
@@ -6492,7 +6537,7 @@
       <c r="E4" s="49"/>
       <c r="F4" s="49"/>
     </row>
-    <row r="5" spans="1:6" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:6" ht="28.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A5" s="34" t="s">
         <v>386</v>
       </c>
@@ -6505,7 +6550,7 @@
       <c r="E5" s="49"/>
       <c r="F5" s="49"/>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A6" s="34" t="s">
         <v>258</v>
       </c>
@@ -6518,7 +6563,7 @@
       <c r="E6" s="49"/>
       <c r="F6" s="49"/>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A7" s="34" t="s">
         <v>351</v>
       </c>
@@ -6531,7 +6576,7 @@
       <c r="E7" s="49"/>
       <c r="F7" s="49"/>
     </row>
-    <row r="8" spans="1:6" ht="43.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:6" ht="43.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A8" s="34" t="s">
         <v>387</v>
       </c>
@@ -6544,7 +6589,7 @@
       <c r="E8" s="49"/>
       <c r="F8" s="49"/>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A9" s="34" t="s">
         <v>34</v>
       </c>
@@ -6557,7 +6602,7 @@
       <c r="E9" s="49"/>
       <c r="F9" s="49"/>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A10" s="34" t="s">
         <v>389</v>
       </c>
@@ -6570,7 +6615,7 @@
       <c r="E10" s="49"/>
       <c r="F10" s="49"/>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A11" s="34" t="s">
         <v>122</v>
       </c>
@@ -6583,7 +6628,7 @@
       <c r="E11" s="49"/>
       <c r="F11" s="49"/>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A12" s="34" t="s">
         <v>390</v>
       </c>
@@ -6596,7 +6641,7 @@
       <c r="E12" s="49"/>
       <c r="F12" s="49"/>
     </row>
-    <row r="13" spans="1:6" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:6" ht="28.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A13" s="34" t="s">
         <v>391</v>
       </c>
@@ -6609,7 +6654,7 @@
       <c r="E13" s="49"/>
       <c r="F13" s="49"/>
     </row>
-    <row r="14" spans="1:6" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:6" ht="28.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A14" s="34" t="s">
         <v>392</v>
       </c>
@@ -6622,7 +6667,7 @@
       <c r="E14" s="49"/>
       <c r="F14" s="49"/>
     </row>
-    <row r="15" spans="1:6" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:6" ht="28.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A15" s="34" t="s">
         <v>393</v>
       </c>
@@ -6635,7 +6680,7 @@
       <c r="E15" s="49"/>
       <c r="F15" s="49"/>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A16" s="34" t="s">
         <v>11</v>
       </c>
@@ -6648,7 +6693,7 @@
       <c r="E16" s="49"/>
       <c r="F16" s="49"/>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A17" s="34" t="s">
         <v>276</v>
       </c>
@@ -6661,7 +6706,7 @@
       <c r="E17" s="49"/>
       <c r="F17" s="49"/>
     </row>
-    <row r="18" spans="1:6" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:6" ht="28.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A18" s="34" t="s">
         <v>362</v>
       </c>
@@ -6674,7 +6719,7 @@
       <c r="E18" s="49"/>
       <c r="F18" s="49"/>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A19" s="34" t="s">
         <v>395</v>
       </c>
@@ -6687,7 +6732,7 @@
       <c r="E19" s="49"/>
       <c r="F19" s="49"/>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A20" s="34" t="s">
         <v>268</v>
       </c>
@@ -6700,7 +6745,7 @@
       <c r="E20" s="49"/>
       <c r="F20" s="49"/>
     </row>
-    <row r="21" spans="1:6" ht="43.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:6" ht="43.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A21" s="34" t="s">
         <v>396</v>
       </c>
@@ -6713,7 +6758,7 @@
       <c r="E21" s="49"/>
       <c r="F21" s="49"/>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A22" s="34" t="s">
         <v>38</v>
       </c>
@@ -6726,7 +6771,7 @@
       <c r="E22" s="49"/>
       <c r="F22" s="49"/>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A23" s="34" t="s">
         <v>270</v>
       </c>
@@ -6739,7 +6784,7 @@
       <c r="E23" s="49"/>
       <c r="F23" s="49"/>
     </row>
-    <row r="24" spans="1:6" ht="43.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:6" ht="43.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A24" s="34" t="s">
         <v>397</v>
       </c>
@@ -6752,7 +6797,7 @@
       <c r="E24" s="49"/>
       <c r="F24" s="49"/>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A25" s="34" t="s">
         <v>324</v>
       </c>
@@ -6765,7 +6810,7 @@
       <c r="E25" s="49"/>
       <c r="F25" s="49"/>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A26" s="34" t="s">
         <v>46</v>
       </c>
@@ -6778,7 +6823,7 @@
       <c r="E26" s="49"/>
       <c r="F26" s="49"/>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A27" s="34" t="s">
         <v>40</v>
       </c>
@@ -6791,7 +6836,7 @@
       <c r="E27" s="49"/>
       <c r="F27" s="49"/>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A28" s="34" t="s">
         <v>343</v>
       </c>
@@ -6804,7 +6849,7 @@
       <c r="E28" s="49"/>
       <c r="F28" s="49"/>
     </row>
-    <row r="29" spans="1:6" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:6" ht="28.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A29" s="34" t="s">
         <v>399</v>
       </c>
@@ -6817,7 +6862,7 @@
       <c r="E29" s="49"/>
       <c r="F29" s="49"/>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A30" s="34" t="s">
         <v>241</v>
       </c>
@@ -6830,7 +6875,7 @@
       <c r="E30" s="49"/>
       <c r="F30" s="49"/>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A31" s="34" t="s">
         <v>90</v>
       </c>
@@ -6843,7 +6888,7 @@
       <c r="E31" s="49"/>
       <c r="F31" s="49"/>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A32" s="34" t="s">
         <v>247</v>
       </c>
@@ -6856,7 +6901,7 @@
       <c r="E32" s="49"/>
       <c r="F32" s="49"/>
     </row>
-    <row r="33" spans="1:6" ht="43.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:6" ht="43.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A33" s="34" t="s">
         <v>401</v>
       </c>
@@ -6869,7 +6914,7 @@
       <c r="E33" s="49"/>
       <c r="F33" s="49"/>
     </row>
-    <row r="34" spans="1:6" ht="86.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:6" ht="86.4" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A34" s="34" t="s">
         <v>26</v>
       </c>
@@ -6882,7 +6927,7 @@
       <c r="E34" s="33"/>
       <c r="F34" s="33"/>
     </row>
-    <row r="35" spans="1:6" ht="86.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:6" ht="86.4" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A35" s="34" t="s">
         <v>402</v>
       </c>
@@ -6893,7 +6938,7 @@
         <v>381</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A36" s="34" t="s">
         <v>403</v>
       </c>
@@ -6904,7 +6949,7 @@
         <v>404</v>
       </c>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A37" s="34" t="s">
         <v>405</v>
       </c>
@@ -6915,17 +6960,17 @@
         <v>383</v>
       </c>
     </row>
-    <row r="38" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A38" s="53"/>
       <c r="B38" s="54"/>
     </row>
-    <row r="39" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B39" s="49"/>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.35">
       <c r="B40" s="48"/>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A41" s="34" t="s">
         <v>286</v>
       </c>
@@ -6934,7 +6979,7 @@
         <v>-17549.920000000002</v>
       </c>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A42" s="34" t="s">
         <v>26</v>
       </c>
@@ -6943,7 +6988,7 @@
         <v>-7445.4</v>
       </c>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A43" s="34" t="s">
         <v>287</v>
       </c>
@@ -6952,7 +6997,7 @@
         <v>-3587.89</v>
       </c>
     </row>
-    <row r="44" spans="1:6" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:6" ht="28.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A44" s="34" t="s">
         <v>406</v>
       </c>
@@ -6961,7 +7006,7 @@
         <v>-2400</v>
       </c>
     </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A45" s="34" t="s">
         <v>289</v>
       </c>
@@ -6970,7 +7015,7 @@
         <v>-9780.5</v>
       </c>
     </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A46" s="34" t="s">
         <v>290</v>
       </c>
@@ -6979,7 +7024,7 @@
         <v>-926</v>
       </c>
     </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A47" s="34" t="s">
         <v>291</v>
       </c>
@@ -6988,7 +7033,7 @@
         <v>-487.87</v>
       </c>
     </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A48" s="42" t="s">
         <v>292</v>
       </c>
@@ -6997,7 +7042,7 @@
         <v>-600</v>
       </c>
     </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A49" s="48" t="s">
         <v>293</v>
       </c>
@@ -7006,10 +7051,10 @@
         <v>-58115</v>
       </c>
     </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:2" x14ac:dyDescent="0.35">
       <c r="B50" s="49"/>
     </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A51" s="44" t="s">
         <v>294</v>
       </c>
@@ -7018,10 +7063,10 @@
         <v>-100892.58</v>
       </c>
     </row>
-    <row r="52" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:2" x14ac:dyDescent="0.35">
       <c r="B52" s="49"/>
     </row>
-    <row r="53" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A53" s="46" t="s">
         <v>295</v>
       </c>
@@ -7043,21 +7088,22 @@
 
 <file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0F00-000000000000}">
-  <dimension ref="A1:D54"/>
+  <dimension ref="A1:F54"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A34" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="C41" sqref="C41"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.90625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="24.21875" style="48" customWidth="1"/>
-    <col min="2" max="2" width="14.44140625" style="48" customWidth="1"/>
-    <col min="3" max="3" width="38.109375" style="48" customWidth="1"/>
-    <col min="4" max="16384" width="8.88671875" style="48"/>
+    <col min="1" max="1" width="24.1796875" style="48" customWidth="1"/>
+    <col min="2" max="2" width="14.453125" style="48" customWidth="1"/>
+    <col min="3" max="3" width="38.08984375" style="48" customWidth="1"/>
+    <col min="4" max="5" width="8.90625" style="48" customWidth="1"/>
+    <col min="6" max="16384" width="8.90625" style="48"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A1" s="48" t="s">
         <v>0</v>
       </c>
@@ -7068,7 +7114,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="2" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" ht="28.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A2" s="48" t="s">
         <v>34</v>
       </c>
@@ -7076,10 +7122,14 @@
         <v>29489</v>
       </c>
       <c r="C2" s="48" t="s">
-        <v>411</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+        <v>407</v>
+      </c>
+      <c r="F2" s="48">
+        <f t="shared" ref="F2:F36" si="0">IF(B2="красный", B2, 0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A3" s="48" t="s">
         <v>107</v>
       </c>
@@ -7087,10 +7137,14 @@
         <v>20000</v>
       </c>
       <c r="C3" s="48" t="s">
-        <v>435</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
+        <v>408</v>
+      </c>
+      <c r="F3" s="48">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" ht="28.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A4" s="48" t="s">
         <v>258</v>
       </c>
@@ -7098,10 +7152,14 @@
         <v>279</v>
       </c>
       <c r="C4" s="48" t="s">
-        <v>438</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
+        <v>409</v>
+      </c>
+      <c r="F4" s="48">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" ht="28.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A5" s="48" t="s">
         <v>351</v>
       </c>
@@ -7109,10 +7167,14 @@
         <v>150.01</v>
       </c>
       <c r="C5" s="48" t="s">
-        <v>438</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" ht="57.6" x14ac:dyDescent="0.3">
+        <v>409</v>
+      </c>
+      <c r="F5" s="48">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" ht="57.65" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A6" s="48" t="s">
         <v>387</v>
       </c>
@@ -7120,54 +7182,74 @@
         <v>50.59</v>
       </c>
       <c r="C6" s="48" t="s">
-        <v>444</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" ht="43.2" x14ac:dyDescent="0.3">
+        <v>410</v>
+      </c>
+      <c r="F6" s="48">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" ht="43.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A7" s="48" t="s">
-        <v>409</v>
+        <v>411</v>
       </c>
       <c r="B7" s="41">
         <v>-66.25</v>
       </c>
       <c r="C7" s="48" t="s">
-        <v>408</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" ht="43.2" x14ac:dyDescent="0.3">
+        <v>412</v>
+      </c>
+      <c r="F7" s="48">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" ht="43.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A8" s="48" t="s">
-        <v>433</v>
+        <v>413</v>
       </c>
       <c r="B8" s="37">
         <v>-120</v>
       </c>
       <c r="C8" s="48" t="s">
-        <v>431</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" ht="43.2" x14ac:dyDescent="0.3">
+        <v>414</v>
+      </c>
+      <c r="F8" s="48">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" ht="43.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A9" s="48" t="s">
-        <v>432</v>
+        <v>415</v>
       </c>
       <c r="B9" s="37">
         <v>-139.80000000000001</v>
       </c>
       <c r="C9" s="48" t="s">
-        <v>431</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" ht="43.2" x14ac:dyDescent="0.3">
+        <v>414</v>
+      </c>
+      <c r="F9" s="48">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" ht="43.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A10" s="48" t="s">
-        <v>430</v>
+        <v>416</v>
       </c>
       <c r="B10" s="37">
         <v>-211.07</v>
       </c>
       <c r="C10" s="48" t="s">
-        <v>431</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
+        <v>414</v>
+      </c>
+      <c r="F10" s="48">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A11" s="48" t="s">
         <v>115</v>
       </c>
@@ -7175,10 +7257,14 @@
         <v>-222</v>
       </c>
       <c r="C11" s="48" t="s">
-        <v>422</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
+        <v>417</v>
+      </c>
+      <c r="F11" s="48">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A12" s="48" t="s">
         <v>88</v>
       </c>
@@ -7188,8 +7274,12 @@
       <c r="C12" s="48" t="s">
         <v>418</v>
       </c>
-    </row>
-    <row r="13" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="F12" s="48">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" ht="28.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A13" s="48" t="s">
         <v>389</v>
       </c>
@@ -7197,10 +7287,14 @@
         <v>-240</v>
       </c>
       <c r="C13" s="48" t="s">
-        <v>417</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
+        <v>419</v>
+      </c>
+      <c r="F13" s="48">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A14" s="48" t="s">
         <v>46</v>
       </c>
@@ -7208,21 +7302,29 @@
         <v>-261.45999999999998</v>
       </c>
       <c r="C14" s="48" t="s">
-        <v>413</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
+        <v>420</v>
+      </c>
+      <c r="F14" s="48">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" ht="28.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A15" s="48" t="s">
-        <v>407</v>
+        <v>421</v>
       </c>
       <c r="B15" s="37">
         <v>-330</v>
       </c>
       <c r="C15" s="48" t="s">
-        <v>408</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
+        <v>412</v>
+      </c>
+      <c r="F15" s="48">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A16" s="48" t="s">
         <v>276</v>
       </c>
@@ -7230,10 +7332,14 @@
         <v>-345</v>
       </c>
       <c r="C16" s="48" t="s">
-        <v>439</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
+        <v>422</v>
+      </c>
+      <c r="F16" s="48">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A17" s="48" t="s">
         <v>270</v>
       </c>
@@ -7241,21 +7347,29 @@
         <v>-350</v>
       </c>
       <c r="C17" s="48" t="s">
-        <v>428</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" ht="43.2" x14ac:dyDescent="0.3">
+        <v>423</v>
+      </c>
+      <c r="F17" s="48">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" ht="43.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A18" s="48" t="s">
-        <v>410</v>
+        <v>424</v>
       </c>
       <c r="B18" s="38">
         <v>-500</v>
       </c>
       <c r="C18" s="48" t="s">
-        <v>408</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
+        <v>412</v>
+      </c>
+      <c r="F18" s="48">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A19" s="48" t="s">
         <v>268</v>
       </c>
@@ -7263,10 +7377,14 @@
         <v>-600</v>
       </c>
       <c r="C19" s="48" t="s">
-        <v>434</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
+        <v>425</v>
+      </c>
+      <c r="F19" s="48">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A20" s="48" t="s">
         <v>395</v>
       </c>
@@ -7274,10 +7392,14 @@
         <v>-710</v>
       </c>
       <c r="C20" s="48" t="s">
-        <v>435</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
+        <v>408</v>
+      </c>
+      <c r="F20" s="48">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A21" s="48" t="s">
         <v>119</v>
       </c>
@@ -7285,10 +7407,14 @@
         <v>-747</v>
       </c>
       <c r="C21" s="48" t="s">
-        <v>415</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
+        <v>426</v>
+      </c>
+      <c r="F21" s="48">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" ht="28.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A22" s="48" t="s">
         <v>13</v>
       </c>
@@ -7296,32 +7422,44 @@
         <v>-750</v>
       </c>
       <c r="C22" s="48" t="s">
-        <v>425</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3" ht="43.2" x14ac:dyDescent="0.3">
+        <v>427</v>
+      </c>
+      <c r="F22" s="48">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" ht="43.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A23" s="48" t="s">
-        <v>440</v>
+        <v>428</v>
       </c>
       <c r="B23" s="37">
         <v>-796</v>
       </c>
       <c r="C23" s="48" t="s">
-        <v>441</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3" ht="288" x14ac:dyDescent="0.3">
+        <v>429</v>
+      </c>
+      <c r="F23" s="48">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" ht="288" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A24" s="48" t="s">
-        <v>443</v>
+        <v>430</v>
       </c>
       <c r="B24" s="35">
         <v>-964.9</v>
       </c>
       <c r="C24" s="48" t="s">
-        <v>444</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
+        <v>410</v>
+      </c>
+      <c r="F24" s="48">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A25" s="48" t="s">
         <v>241</v>
       </c>
@@ -7329,10 +7467,14 @@
         <v>-987</v>
       </c>
       <c r="C25" s="48" t="s">
-        <v>434</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
+        <v>425</v>
+      </c>
+      <c r="F25" s="48">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A26" s="48" t="s">
         <v>121</v>
       </c>
@@ -7342,30 +7484,42 @@
       <c r="C26" s="48" t="s">
         <v>418</v>
       </c>
-    </row>
-    <row r="27" spans="1:3" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="F26" s="48">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" ht="43.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A27" s="48" t="s">
-        <v>423</v>
+        <v>431</v>
       </c>
       <c r="B27" s="38">
         <v>-1000</v>
       </c>
       <c r="C27" s="48" t="s">
-        <v>424</v>
-      </c>
-    </row>
-    <row r="28" spans="1:3" ht="43.2" x14ac:dyDescent="0.3">
+        <v>432</v>
+      </c>
+      <c r="F27" s="48">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" ht="43.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A28" s="48" t="s">
-        <v>436</v>
+        <v>433</v>
       </c>
       <c r="B28" s="37">
         <v>-1000</v>
       </c>
       <c r="C28" s="48" t="s">
-        <v>437</v>
-      </c>
-    </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.3">
+        <v>434</v>
+      </c>
+      <c r="F28" s="48">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A29" s="48" t="s">
         <v>90</v>
       </c>
@@ -7373,43 +7527,59 @@
         <v>-1119.81</v>
       </c>
       <c r="C29" s="48" t="s">
-        <v>429</v>
-      </c>
-    </row>
-    <row r="30" spans="1:3" ht="43.2" x14ac:dyDescent="0.3">
+        <v>435</v>
+      </c>
+      <c r="F29" s="48">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" ht="43.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A30" s="48" t="s">
-        <v>419</v>
+        <v>436</v>
       </c>
       <c r="B30" s="37">
         <v>-1312.5</v>
       </c>
       <c r="C30" s="48" t="s">
-        <v>420</v>
-      </c>
-    </row>
-    <row r="31" spans="1:3" ht="43.2" x14ac:dyDescent="0.3">
+        <v>437</v>
+      </c>
+      <c r="F30" s="48">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" ht="43.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A31" s="48" t="s">
-        <v>426</v>
+        <v>438</v>
       </c>
       <c r="B31" s="37">
         <v>-1500</v>
       </c>
       <c r="C31" s="48" t="s">
-        <v>427</v>
-      </c>
-    </row>
-    <row r="32" spans="1:3" ht="57.6" x14ac:dyDescent="0.3">
+        <v>439</v>
+      </c>
+      <c r="F31" s="48">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" ht="57.65" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A32" s="48" t="s">
-        <v>442</v>
+        <v>440</v>
       </c>
       <c r="B32" s="37">
         <v>-1600</v>
       </c>
       <c r="C32" s="48" t="s">
-        <v>441</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4" ht="43.2" x14ac:dyDescent="0.3">
+        <v>429</v>
+      </c>
+      <c r="F32" s="48">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" ht="43.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A33" s="48" t="s">
         <v>402</v>
       </c>
@@ -7417,10 +7587,14 @@
         <v>-4098.53</v>
       </c>
       <c r="C33" s="48" t="s">
-        <v>421</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.3">
+        <v>441</v>
+      </c>
+      <c r="F33" s="48">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A34" s="48" t="s">
         <v>21</v>
       </c>
@@ -7428,10 +7602,14 @@
         <v>-6500</v>
       </c>
       <c r="C34" s="48" t="s">
-        <v>408</v>
-      </c>
-    </row>
-    <row r="35" spans="1:4" ht="86.4" x14ac:dyDescent="0.3">
+        <v>412</v>
+      </c>
+      <c r="F34" s="48">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" ht="86.4" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A35" s="48" t="s">
         <v>26</v>
       </c>
@@ -7439,10 +7617,14 @@
         <v>-7666.14</v>
       </c>
       <c r="C35" s="48" t="s">
-        <v>412</v>
-      </c>
-    </row>
-    <row r="36" spans="1:4" ht="57.6" x14ac:dyDescent="0.3">
+        <v>442</v>
+      </c>
+      <c r="F35" s="48">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" ht="57.65" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A36" s="48" t="s">
         <v>403</v>
       </c>
@@ -7450,10 +7632,14 @@
         <v>-13172</v>
       </c>
       <c r="C36" s="48" t="s">
-        <v>416</v>
-      </c>
-    </row>
-    <row r="37" spans="1:4" ht="57.6" x14ac:dyDescent="0.3">
+        <v>443</v>
+      </c>
+      <c r="F36" s="48">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" ht="57.65" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A37" s="48" t="s">
         <v>247</v>
       </c>
@@ -7461,10 +7647,10 @@
         <v>-16588.240000000002</v>
       </c>
       <c r="C37" s="48" t="s">
-        <v>414</v>
-      </c>
-    </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.3">
+        <v>444</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A38" s="48" t="s">
         <v>405</v>
       </c>
@@ -7472,10 +7658,10 @@
         <v>-55000</v>
       </c>
       <c r="C38" s="48" t="s">
-        <v>435</v>
-      </c>
-    </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.3">
+        <v>408</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A41" s="34" t="s">
         <v>286</v>
       </c>
@@ -7485,7 +7671,7 @@
       </c>
       <c r="D41" s="60"/>
     </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A42" s="34" t="s">
         <v>26</v>
       </c>
@@ -7494,7 +7680,7 @@
         <v>-7666.14</v>
       </c>
     </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A43" s="34" t="s">
         <v>287</v>
       </c>
@@ -7503,7 +7689,7 @@
         <v>-9696.25</v>
       </c>
     </row>
-    <row r="44" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:6" ht="28.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A44" s="34" t="s">
         <v>406</v>
       </c>
@@ -7512,7 +7698,7 @@
         <v>-2090</v>
       </c>
     </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A45" s="34" t="s">
         <v>289</v>
       </c>
@@ -7521,13 +7707,13 @@
         <v>-222</v>
       </c>
     </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A46" s="34" t="s">
         <v>290</v>
       </c>
       <c r="B46" s="40"/>
     </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A47" s="34" t="s">
         <v>445</v>
       </c>
@@ -7536,7 +7722,7 @@
         <v>-411.25</v>
       </c>
     </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A48" s="34" t="s">
         <v>292</v>
       </c>
@@ -7545,7 +7731,7 @@
         <v>-600</v>
       </c>
     </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A49" s="34" t="s">
         <v>293</v>
       </c>
@@ -7554,7 +7740,7 @@
         <v>-55000</v>
       </c>
     </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A50" s="34" t="s">
         <v>446</v>
       </c>
@@ -7563,10 +7749,10 @@
         <v>-1000</v>
       </c>
     </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:2" x14ac:dyDescent="0.35">
       <c r="B51" s="49"/>
     </row>
-    <row r="52" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A52" s="55" t="s">
         <v>294</v>
       </c>
@@ -7575,10 +7761,10 @@
         <v>-80465.58</v>
       </c>
     </row>
-    <row r="53" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:2" x14ac:dyDescent="0.35">
       <c r="B53" s="49"/>
     </row>
-    <row r="54" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A54" s="57" t="s">
         <v>295</v>
       </c>
@@ -7588,13 +7774,815 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:C1" xr:uid="{00000000-0001-0000-0F00-000000000000}">
+  <autoFilter ref="A1:C1" xr:uid="{00000000-0009-0000-0000-00000F000000}">
     <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:C38">
       <sortCondition descending="1" ref="B1"/>
     </sortState>
   </autoFilter>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1000-000000000000}">
+  <dimension ref="A1:C35"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="37.08984375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A2" t="s">
+        <v>421</v>
+      </c>
+      <c r="B2">
+        <v>-330</v>
+      </c>
+      <c r="C2" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A3" t="s">
+        <v>447</v>
+      </c>
+      <c r="B3">
+        <v>-66.25</v>
+      </c>
+      <c r="C3" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A4" t="s">
+        <v>424</v>
+      </c>
+      <c r="B4">
+        <v>-500</v>
+      </c>
+      <c r="C4" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A5" t="s">
+        <v>34</v>
+      </c>
+      <c r="B5">
+        <v>29489</v>
+      </c>
+      <c r="C5" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A6" t="s">
+        <v>26</v>
+      </c>
+      <c r="B6">
+        <v>-7666.14</v>
+      </c>
+      <c r="C6" t="s">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A7" t="s">
+        <v>21</v>
+      </c>
+      <c r="B7">
+        <v>-6500</v>
+      </c>
+      <c r="C7" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A8" t="s">
+        <v>46</v>
+      </c>
+      <c r="B8">
+        <v>-261.45999999999998</v>
+      </c>
+      <c r="C8" t="s">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A9" t="s">
+        <v>247</v>
+      </c>
+      <c r="B9">
+        <v>-16588.240000000002</v>
+      </c>
+      <c r="C9" t="s">
+        <v>444</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A10" t="s">
+        <v>119</v>
+      </c>
+      <c r="B10">
+        <v>-747</v>
+      </c>
+      <c r="C10" t="s">
+        <v>426</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A11" t="s">
+        <v>403</v>
+      </c>
+      <c r="B11">
+        <v>-13172</v>
+      </c>
+      <c r="C11" t="s">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A12" t="s">
+        <v>389</v>
+      </c>
+      <c r="B12">
+        <v>-240</v>
+      </c>
+      <c r="C12" t="s">
+        <v>419</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A13" t="s">
+        <v>121</v>
+      </c>
+      <c r="B13">
+        <v>-1000</v>
+      </c>
+      <c r="C13" t="s">
+        <v>418</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A14" t="s">
+        <v>88</v>
+      </c>
+      <c r="B14">
+        <v>-239.88</v>
+      </c>
+      <c r="C14" t="s">
+        <v>418</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A15" t="s">
+        <v>436</v>
+      </c>
+      <c r="B15">
+        <v>-1312.5</v>
+      </c>
+      <c r="C15" t="s">
+        <v>437</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A16" t="s">
+        <v>448</v>
+      </c>
+      <c r="B16">
+        <v>-5012.84</v>
+      </c>
+      <c r="C16" t="s">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A17" t="s">
+        <v>115</v>
+      </c>
+      <c r="B17">
+        <v>-222</v>
+      </c>
+      <c r="C17" t="s">
+        <v>417</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A18" t="s">
+        <v>431</v>
+      </c>
+      <c r="B18">
+        <v>-1000</v>
+      </c>
+      <c r="C18" t="s">
+        <v>432</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A19" t="s">
+        <v>13</v>
+      </c>
+      <c r="B19">
+        <v>-750</v>
+      </c>
+      <c r="C19" t="s">
+        <v>427</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A20" t="s">
+        <v>438</v>
+      </c>
+      <c r="B20">
+        <v>-1500</v>
+      </c>
+      <c r="C20" t="s">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A21" t="s">
+        <v>270</v>
+      </c>
+      <c r="B21">
+        <v>-350</v>
+      </c>
+      <c r="C21" t="s">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A22" t="s">
+        <v>90</v>
+      </c>
+      <c r="B22">
+        <v>-1119.81</v>
+      </c>
+      <c r="C22" t="s">
+        <v>435</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A23" t="s">
+        <v>450</v>
+      </c>
+      <c r="B23">
+        <v>-350.87</v>
+      </c>
+      <c r="C23" t="s">
+        <v>451</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A24" t="s">
+        <v>413</v>
+      </c>
+      <c r="B24">
+        <v>-120</v>
+      </c>
+      <c r="C24" t="s">
+        <v>414</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A25" t="s">
+        <v>241</v>
+      </c>
+      <c r="B25">
+        <v>-987</v>
+      </c>
+      <c r="C25" t="s">
+        <v>425</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A26" t="s">
+        <v>268</v>
+      </c>
+      <c r="B26">
+        <v>-600</v>
+      </c>
+      <c r="C26" t="s">
+        <v>425</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A27" t="s">
+        <v>405</v>
+      </c>
+      <c r="B27">
+        <v>-55000</v>
+      </c>
+      <c r="C27" t="s">
+        <v>408</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A28" s="61" t="s">
+        <v>107</v>
+      </c>
+      <c r="B28">
+        <v>20000</v>
+      </c>
+      <c r="C28" t="s">
+        <v>408</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A29" t="s">
+        <v>395</v>
+      </c>
+      <c r="B29">
+        <v>-710</v>
+      </c>
+      <c r="C29" t="s">
+        <v>408</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A30" t="s">
+        <v>433</v>
+      </c>
+      <c r="B30">
+        <v>-1000</v>
+      </c>
+      <c r="C30" t="s">
+        <v>434</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A31" t="s">
+        <v>258</v>
+      </c>
+      <c r="B31">
+        <v>279</v>
+      </c>
+      <c r="C31" t="s">
+        <v>409</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A32" t="s">
+        <v>351</v>
+      </c>
+      <c r="B32">
+        <v>150.01</v>
+      </c>
+      <c r="C32" t="s">
+        <v>409</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A33" t="s">
+        <v>276</v>
+      </c>
+      <c r="B33">
+        <v>-345</v>
+      </c>
+      <c r="C33" t="s">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A34" t="s">
+        <v>428</v>
+      </c>
+      <c r="B34">
+        <v>-796</v>
+      </c>
+      <c r="C34" t="s">
+        <v>429</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A35" t="s">
+        <v>452</v>
+      </c>
+      <c r="B35">
+        <v>-1600</v>
+      </c>
+      <c r="C35" t="s">
+        <v>429</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1100-000000000000}">
+  <dimension ref="A1:C35"/>
+  <sheetViews>
+    <sheetView topLeftCell="A7" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="31.453125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A2" t="s">
+        <v>421</v>
+      </c>
+      <c r="B2">
+        <v>-330</v>
+      </c>
+      <c r="C2" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A3" s="62" t="s">
+        <v>447</v>
+      </c>
+      <c r="B3">
+        <v>-66.25</v>
+      </c>
+      <c r="C3" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A4" t="s">
+        <v>424</v>
+      </c>
+      <c r="B4">
+        <v>-500</v>
+      </c>
+      <c r="C4" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A5" t="s">
+        <v>34</v>
+      </c>
+      <c r="B5">
+        <v>29489</v>
+      </c>
+      <c r="C5" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A6" t="s">
+        <v>26</v>
+      </c>
+      <c r="B6">
+        <v>-7666.14</v>
+      </c>
+      <c r="C6" t="s">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A7" t="s">
+        <v>21</v>
+      </c>
+      <c r="B7">
+        <v>-6500</v>
+      </c>
+      <c r="C7" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A8" t="s">
+        <v>46</v>
+      </c>
+      <c r="B8">
+        <v>-261.45999999999998</v>
+      </c>
+      <c r="C8" t="s">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A9" t="s">
+        <v>247</v>
+      </c>
+      <c r="B9">
+        <v>-16588.240000000002</v>
+      </c>
+      <c r="C9" t="s">
+        <v>444</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A10" t="s">
+        <v>119</v>
+      </c>
+      <c r="B10">
+        <v>-747</v>
+      </c>
+      <c r="C10" t="s">
+        <v>426</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A11" t="s">
+        <v>403</v>
+      </c>
+      <c r="B11">
+        <v>-13172</v>
+      </c>
+      <c r="C11" t="s">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A12" t="s">
+        <v>389</v>
+      </c>
+      <c r="B12">
+        <v>-240</v>
+      </c>
+      <c r="C12" t="s">
+        <v>419</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A13" t="s">
+        <v>121</v>
+      </c>
+      <c r="B13">
+        <v>-1000</v>
+      </c>
+      <c r="C13" t="s">
+        <v>418</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A14" t="s">
+        <v>88</v>
+      </c>
+      <c r="B14">
+        <v>-239.88</v>
+      </c>
+      <c r="C14" t="s">
+        <v>418</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A15" t="s">
+        <v>436</v>
+      </c>
+      <c r="B15">
+        <v>-1312.5</v>
+      </c>
+      <c r="C15" t="s">
+        <v>437</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A16" t="s">
+        <v>448</v>
+      </c>
+      <c r="B16">
+        <v>-5012.84</v>
+      </c>
+      <c r="C16" t="s">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A17" t="s">
+        <v>115</v>
+      </c>
+      <c r="B17">
+        <v>-222</v>
+      </c>
+      <c r="C17" t="s">
+        <v>417</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A18" t="s">
+        <v>431</v>
+      </c>
+      <c r="B18">
+        <v>-1000</v>
+      </c>
+      <c r="C18" t="s">
+        <v>432</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A19" t="s">
+        <v>13</v>
+      </c>
+      <c r="B19">
+        <v>-750</v>
+      </c>
+      <c r="C19" t="s">
+        <v>427</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A20" t="s">
+        <v>438</v>
+      </c>
+      <c r="B20">
+        <v>-1500</v>
+      </c>
+      <c r="C20" t="s">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A21" t="s">
+        <v>270</v>
+      </c>
+      <c r="B21">
+        <v>-350</v>
+      </c>
+      <c r="C21" t="s">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A22" t="s">
+        <v>90</v>
+      </c>
+      <c r="B22">
+        <v>-1119.81</v>
+      </c>
+      <c r="C22" t="s">
+        <v>435</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A23" t="s">
+        <v>450</v>
+      </c>
+      <c r="B23">
+        <v>-350.87</v>
+      </c>
+      <c r="C23" t="s">
+        <v>451</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A24" t="s">
+        <v>413</v>
+      </c>
+      <c r="B24">
+        <v>-120</v>
+      </c>
+      <c r="C24" t="s">
+        <v>414</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A25" t="s">
+        <v>241</v>
+      </c>
+      <c r="B25">
+        <v>-987</v>
+      </c>
+      <c r="C25" t="s">
+        <v>425</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A26" t="s">
+        <v>268</v>
+      </c>
+      <c r="B26">
+        <v>-600</v>
+      </c>
+      <c r="C26" t="s">
+        <v>425</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A27" t="s">
+        <v>405</v>
+      </c>
+      <c r="B27">
+        <v>-55000</v>
+      </c>
+      <c r="C27" t="s">
+        <v>408</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A28" t="s">
+        <v>107</v>
+      </c>
+      <c r="B28">
+        <v>20000</v>
+      </c>
+      <c r="C28" t="s">
+        <v>408</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A29" t="s">
+        <v>395</v>
+      </c>
+      <c r="B29">
+        <v>-710</v>
+      </c>
+      <c r="C29" t="s">
+        <v>408</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A30" t="s">
+        <v>433</v>
+      </c>
+      <c r="B30">
+        <v>-1000</v>
+      </c>
+      <c r="C30" t="s">
+        <v>434</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A31" t="s">
+        <v>258</v>
+      </c>
+      <c r="B31">
+        <v>279</v>
+      </c>
+      <c r="C31" t="s">
+        <v>409</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A32" t="s">
+        <v>351</v>
+      </c>
+      <c r="B32">
+        <v>150.01</v>
+      </c>
+      <c r="C32" t="s">
+        <v>409</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A33" s="62" t="s">
+        <v>276</v>
+      </c>
+      <c r="B33">
+        <v>-345</v>
+      </c>
+      <c r="C33" t="s">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A34" t="s">
+        <v>428</v>
+      </c>
+      <c r="B34">
+        <v>-796</v>
+      </c>
+      <c r="C34" t="s">
+        <v>429</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A35" t="s">
+        <v>452</v>
+      </c>
+      <c r="B35">
+        <v>-1600</v>
+      </c>
+      <c r="C35" t="s">
+        <v>429</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
 
@@ -7606,13 +8594,13 @@
       <selection activeCell="D38" sqref="D38"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="47.21875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="47.1796875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="16" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -7620,7 +8608,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>109</v>
       </c>
@@ -7628,7 +8616,7 @@
         <v>104700</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>26</v>
       </c>
@@ -7636,7 +8624,7 @@
         <v>-4683.08</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>67</v>
       </c>
@@ -7644,7 +8632,7 @@
         <v>-230</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A5" s="2" t="s">
         <v>112</v>
       </c>
@@ -7657,7 +8645,7 @@
         <v>16000</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>34</v>
       </c>
@@ -7665,7 +8653,7 @@
         <v>21378.67</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>38</v>
       </c>
@@ -7673,7 +8661,7 @@
         <v>-1620</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A8" s="2" t="s">
         <v>113</v>
       </c>
@@ -7683,7 +8671,7 @@
       <c r="C8" s="2"/>
       <c r="D8" s="2"/>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>11</v>
       </c>
@@ -7691,7 +8679,7 @@
         <v>-13174</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>61</v>
       </c>
@@ -7699,7 +8687,7 @@
         <v>-742.24</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>114</v>
       </c>
@@ -7707,7 +8695,7 @@
         <v>-182500</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
         <v>111</v>
       </c>
@@ -7715,7 +8703,7 @@
         <v>189000</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A13" s="3" t="s">
         <v>32</v>
       </c>
@@ -7725,7 +8713,7 @@
       <c r="C13" s="3"/>
       <c r="D13" s="3"/>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
         <v>49</v>
       </c>
@@ -7733,7 +8721,7 @@
         <v>-782</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A15" s="2" t="s">
         <v>80</v>
       </c>
@@ -7743,7 +8731,7 @@
       <c r="C15" s="2"/>
       <c r="D15" s="2"/>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A16" s="2" t="s">
         <v>46</v>
       </c>
@@ -7753,7 +8741,7 @@
       <c r="C16" s="2"/>
       <c r="D16" s="2"/>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
         <v>115</v>
       </c>
@@ -7761,7 +8749,7 @@
         <v>-1930</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
         <v>116</v>
       </c>
@@ -7769,7 +8757,7 @@
         <v>-1663.26</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
         <v>28</v>
       </c>
@@ -7777,7 +8765,7 @@
         <v>-3000</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
         <v>93</v>
       </c>
@@ -7785,7 +8773,7 @@
         <v>88.03</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
         <v>95</v>
       </c>
@@ -7793,7 +8781,7 @@
         <v>743.19999999999993</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
         <v>97</v>
       </c>
@@ -7801,7 +8789,7 @@
         <v>923</v>
       </c>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
         <v>73</v>
       </c>
@@ -7809,7 +8797,7 @@
         <v>-200</v>
       </c>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
         <v>117</v>
       </c>
@@ -7817,7 +8805,7 @@
         <v>-6453</v>
       </c>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A25" s="2" t="s">
         <v>30</v>
       </c>
@@ -7827,7 +8815,7 @@
       <c r="C25" s="2"/>
       <c r="D25" s="2"/>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A26" t="s">
         <v>69</v>
       </c>
@@ -7835,7 +8823,7 @@
         <v>-225</v>
       </c>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A27" t="s">
         <v>40</v>
       </c>
@@ -7843,7 +8831,7 @@
         <v>-1600</v>
       </c>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A28" t="s">
         <v>21</v>
       </c>
@@ -7851,7 +8839,7 @@
         <v>-4000</v>
       </c>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A29" t="s">
         <v>5</v>
       </c>
@@ -7862,7 +8850,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A30" t="s">
         <v>22</v>
       </c>
@@ -7870,7 +8858,7 @@
         <v>-4000</v>
       </c>
     </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A31" t="s">
         <v>24</v>
       </c>
@@ -7878,7 +8866,7 @@
         <v>-4000</v>
       </c>
     </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A32" s="2" t="s">
         <v>119</v>
       </c>
@@ -7888,7 +8876,7 @@
       <c r="C32" s="2"/>
       <c r="D32" s="2"/>
     </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A33" t="s">
         <v>75</v>
       </c>
@@ -7896,7 +8884,7 @@
         <v>-190</v>
       </c>
     </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A34" t="s">
         <v>13</v>
       </c>
@@ -7904,7 +8892,7 @@
         <v>-1430</v>
       </c>
     </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A35" t="s">
         <v>120</v>
       </c>
@@ -7912,7 +8900,7 @@
         <v>-250</v>
       </c>
     </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A36" t="s">
         <v>102</v>
       </c>
@@ -7920,7 +8908,7 @@
         <v>4000</v>
       </c>
     </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A37" t="s">
         <v>41</v>
       </c>
@@ -7928,7 +8916,7 @@
         <v>-1600</v>
       </c>
     </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A38" t="s">
         <v>82</v>
       </c>
@@ -7936,7 +8924,7 @@
         <v>-130</v>
       </c>
     </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A39" t="s">
         <v>70</v>
       </c>
@@ -7944,7 +8932,7 @@
         <v>-210</v>
       </c>
     </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A40" t="s">
         <v>99</v>
       </c>
@@ -7952,7 +8940,7 @@
         <v>2000</v>
       </c>
     </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A41" t="s">
         <v>52</v>
       </c>
@@ -7960,7 +8948,7 @@
         <v>-893</v>
       </c>
     </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A42" t="s">
         <v>106</v>
       </c>
@@ -7968,7 +8956,7 @@
         <v>29900</v>
       </c>
     </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A43" t="s">
         <v>121</v>
       </c>
@@ -7976,7 +8964,7 @@
         <v>-389</v>
       </c>
     </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A44" s="2" t="s">
         <v>122</v>
       </c>
@@ -7986,7 +8974,7 @@
       <c r="C44" s="2"/>
       <c r="D44" s="2"/>
     </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A45" t="s">
         <v>78</v>
       </c>
@@ -7994,7 +8982,7 @@
         <v>-166</v>
       </c>
     </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A46" s="2" t="s">
         <v>90</v>
       </c>
@@ -8004,7 +8992,7 @@
       <c r="C46" s="2"/>
       <c r="D46" s="2"/>
     </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A47" t="s">
         <v>53</v>
       </c>
@@ -8012,7 +9000,7 @@
         <v>-710</v>
       </c>
     </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A48" s="2" t="s">
         <v>88</v>
       </c>
@@ -8022,7 +9010,7 @@
       <c r="C48" s="2"/>
       <c r="D48" s="2"/>
     </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A50" t="s">
         <v>123</v>
       </c>
@@ -8030,7 +9018,7 @@
         <v>444044.93</v>
       </c>
     </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A51" t="s">
         <v>124</v>
       </c>
@@ -8038,7 +9026,7 @@
         <v>-439542.22999999992</v>
       </c>
     </row>
-    <row r="52" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A52" t="s">
         <v>125</v>
       </c>
@@ -8046,11 +9034,11 @@
         <v>4502.7000000000698</v>
       </c>
     </row>
-    <row r="55" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A55" s="4"/>
       <c r="B55" s="4"/>
     </row>
-    <row r="56" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A56" s="4"/>
     </row>
   </sheetData>
@@ -8066,13 +9054,13 @@
       <selection activeCell="F27" sqref="F27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="31.88671875" customWidth="1"/>
-    <col min="2" max="2" width="24.44140625" customWidth="1"/>
+    <col min="1" max="1" width="31.90625" customWidth="1"/>
+    <col min="2" max="2" width="24.453125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -8080,7 +9068,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A2" s="2" t="s">
         <v>111</v>
       </c>
@@ -8096,7 +9084,7 @@
         <v>73000</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>107</v>
       </c>
@@ -8112,7 +9100,7 @@
         <v>29900</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A4" s="2" t="s">
         <v>109</v>
       </c>
@@ -8128,7 +9116,7 @@
         <v>14800</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>99</v>
       </c>
@@ -8144,7 +9132,7 @@
         <v>2000</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>95</v>
       </c>
@@ -8160,7 +9148,7 @@
         <v>645.29999999999995</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>97</v>
       </c>
@@ -8176,7 +9164,7 @@
         <v>324</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>93</v>
       </c>
@@ -8192,7 +9180,7 @@
         <v>44.61</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>90</v>
       </c>
@@ -8208,7 +9196,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>88</v>
       </c>
@@ -8224,7 +9212,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>80</v>
       </c>
@@ -8240,7 +9228,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
         <v>11</v>
       </c>
@@ -8256,7 +9244,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
         <v>82</v>
       </c>
@@ -8272,7 +9260,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
         <v>78</v>
       </c>
@@ -8288,7 +9276,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
         <v>69</v>
       </c>
@@ -8304,7 +9292,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
         <v>73</v>
       </c>
@@ -8320,7 +9308,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
         <v>70</v>
       </c>
@@ -8336,7 +9324,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
         <v>122</v>
       </c>
@@ -8352,7 +9340,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
         <v>121</v>
       </c>
@@ -8368,7 +9356,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
         <v>46</v>
       </c>
@@ -8384,7 +9372,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
         <v>38</v>
       </c>
@@ -8400,7 +9388,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
         <v>53</v>
       </c>
@@ -8416,7 +9404,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
         <v>116</v>
       </c>
@@ -8432,7 +9420,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
         <v>40</v>
       </c>
@@ -8448,7 +9436,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
         <v>52</v>
       </c>
@@ -8464,7 +9452,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A26" t="s">
         <v>26</v>
       </c>
@@ -8480,7 +9468,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A27" t="s">
         <v>115</v>
       </c>
@@ -8496,7 +9484,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A28" t="s">
         <v>32</v>
       </c>
@@ -8512,7 +9500,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A29" t="s">
         <v>30</v>
       </c>
@@ -8528,7 +9516,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A30" t="s">
         <v>41</v>
       </c>
@@ -8544,7 +9532,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A31" t="s">
         <v>112</v>
       </c>
@@ -8560,7 +9548,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A32" t="s">
         <v>5</v>
       </c>
@@ -8576,7 +9564,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="5:6" x14ac:dyDescent="0.3">
+    <row r="33" spans="5:6" x14ac:dyDescent="0.35">
       <c r="E33" s="24">
         <f>SUM(E2:E32)</f>
         <v>-95200.459999999992</v>
@@ -8586,7 +9574,7 @@
         <v>120713.91</v>
       </c>
     </row>
-    <row r="34" spans="5:6" x14ac:dyDescent="0.3">
+    <row r="34" spans="5:6" x14ac:dyDescent="0.35">
       <c r="E34" s="24" t="s">
         <v>126</v>
       </c>
@@ -8612,17 +9600,17 @@
       <selection activeCell="G35" sqref="G35"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.90625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="43.33203125" style="5" customWidth="1"/>
-    <col min="2" max="2" width="24.44140625" style="5" customWidth="1"/>
-    <col min="3" max="4" width="8.88671875" style="5" customWidth="1"/>
-    <col min="5" max="6" width="8.88671875" customWidth="1"/>
-    <col min="7" max="31" width="8.88671875" style="5" customWidth="1"/>
-    <col min="32" max="16384" width="8.88671875" style="5"/>
+    <col min="1" max="1" width="43.36328125" style="5" customWidth="1"/>
+    <col min="2" max="2" width="24.453125" style="5" customWidth="1"/>
+    <col min="3" max="4" width="8.90625" style="5" customWidth="1"/>
+    <col min="5" max="6" width="8.90625" customWidth="1"/>
+    <col min="7" max="33" width="8.90625" style="5" customWidth="1"/>
+    <col min="34" max="16384" width="8.90625" style="5"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A1" s="6" t="s">
         <v>0</v>
       </c>
@@ -8630,7 +9618,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A2" s="2" t="s">
         <v>111</v>
       </c>
@@ -8648,7 +9636,7 @@
         <v>66000</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A3" s="5" t="s">
         <v>109</v>
       </c>
@@ -8664,7 +9652,7 @@
         <v>54900</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A4" s="5" t="s">
         <v>97</v>
       </c>
@@ -8680,7 +9668,7 @@
         <v>599</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A5" s="5" t="s">
         <v>95</v>
       </c>
@@ -8696,7 +9684,7 @@
         <v>97.9</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A6" s="5" t="s">
         <v>93</v>
       </c>
@@ -8712,7 +9700,7 @@
         <v>43.42</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A7" s="5" t="s">
         <v>13</v>
       </c>
@@ -8728,7 +9716,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A8" s="5" t="s">
         <v>73</v>
       </c>
@@ -8744,7 +9732,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A9" s="5" t="s">
         <v>69</v>
       </c>
@@ -8760,7 +9748,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A10" s="5" t="s">
         <v>80</v>
       </c>
@@ -8776,7 +9764,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A11" s="5" t="s">
         <v>75</v>
       </c>
@@ -8792,7 +9780,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A12" s="5" t="s">
         <v>120</v>
       </c>
@@ -8808,7 +9796,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A13" s="5" t="s">
         <v>30</v>
       </c>
@@ -8824,7 +9812,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A14" s="5" t="s">
         <v>61</v>
       </c>
@@ -8840,7 +9828,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A15" s="5" t="s">
         <v>38</v>
       </c>
@@ -8856,7 +9844,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A16" s="5" t="s">
         <v>119</v>
       </c>
@@ -8872,7 +9860,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A17" s="5" t="s">
         <v>46</v>
       </c>
@@ -8888,7 +9876,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A18" s="5" t="s">
         <v>49</v>
       </c>
@@ -8904,7 +9892,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A19" s="5" t="s">
         <v>115</v>
       </c>
@@ -8920,7 +9908,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A20" s="5" t="s">
         <v>40</v>
       </c>
@@ -8936,7 +9924,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A21" s="5" t="s">
         <v>116</v>
       </c>
@@ -8952,7 +9940,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A22" s="5" t="s">
         <v>113</v>
       </c>
@@ -8968,7 +9956,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A23" s="5" t="s">
         <v>5</v>
       </c>
@@ -8984,7 +9972,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A24" s="5" t="s">
         <v>32</v>
       </c>
@@ -9000,7 +9988,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A25" s="5" t="s">
         <v>34</v>
       </c>
@@ -9016,7 +10004,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A26" s="5" t="s">
         <v>21</v>
       </c>
@@ -9032,7 +10020,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A27" s="5" t="s">
         <v>26</v>
       </c>
@@ -9048,7 +10036,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A28" s="5" t="s">
         <v>28</v>
       </c>
@@ -9064,7 +10052,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A29" s="5" t="s">
         <v>11</v>
       </c>
@@ -9080,7 +10068,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A30" s="5" t="s">
         <v>24</v>
       </c>
@@ -9096,7 +10084,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A31" s="5" t="s">
         <v>117</v>
       </c>
@@ -9112,7 +10100,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A32" s="5" t="s">
         <v>112</v>
       </c>
@@ -9128,7 +10116,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A33" s="5" t="s">
         <v>114</v>
       </c>
@@ -9144,7 +10132,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.35">
       <c r="E34" s="24">
         <f>SUM(E2:E33)</f>
         <v>-110127.09</v>
@@ -9154,7 +10142,7 @@
         <v>121640.31999999999</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.35">
       <c r="E35" s="24" t="s">
         <v>126</v>
       </c>
@@ -9181,14 +10169,14 @@
       <selection activeCell="E2" sqref="E2:F2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="43.33203125" style="5" customWidth="1"/>
-    <col min="2" max="2" width="24.44140625" style="5" customWidth="1"/>
-    <col min="3" max="4" width="8.88671875" style="5" customWidth="1"/>
+    <col min="1" max="1" width="43.36328125" style="5" customWidth="1"/>
+    <col min="2" max="2" width="24.453125" style="5" customWidth="1"/>
+    <col min="3" max="4" width="8.90625" style="5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A1" s="6" t="s">
         <v>0</v>
       </c>
@@ -9196,7 +10184,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A2" s="5" t="s">
         <v>109</v>
       </c>
@@ -9212,7 +10200,7 @@
         <v>53800</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A3" s="2" t="s">
         <v>111</v>
       </c>
@@ -9230,7 +10218,7 @@
         <v>42300</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A4" s="5" t="s">
         <v>107</v>
       </c>
@@ -9246,7 +10234,7 @@
         <v>25000</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A5" s="5" t="s">
         <v>99</v>
       </c>
@@ -9262,7 +10250,7 @@
         <v>2000</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A6" s="5" t="s">
         <v>128</v>
       </c>
@@ -9278,7 +10266,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A7" s="5" t="s">
         <v>129</v>
       </c>
@@ -9294,7 +10282,7 @@
         <v>469</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A8" s="5" t="s">
         <v>97</v>
       </c>
@@ -9310,7 +10298,7 @@
         <v>296</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A9" s="5" t="s">
         <v>130</v>
       </c>
@@ -9326,7 +10314,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A10" s="5" t="s">
         <v>93</v>
       </c>
@@ -9342,7 +10330,7 @@
         <v>75.66</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A11" s="5" t="s">
         <v>34</v>
       </c>
@@ -9358,7 +10346,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A12" s="3" t="s">
         <v>80</v>
       </c>
@@ -9374,7 +10362,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A13" s="3" t="s">
         <v>131</v>
       </c>
@@ -9390,7 +10378,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A14" s="3" t="s">
         <v>132</v>
       </c>
@@ -9406,7 +10394,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A15" s="3" t="s">
         <v>133</v>
       </c>
@@ -9422,7 +10410,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A16" s="3" t="s">
         <v>134</v>
       </c>
@@ -9438,7 +10426,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A17" s="3" t="s">
         <v>88</v>
       </c>
@@ -9454,7 +10442,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A18" s="3" t="s">
         <v>135</v>
       </c>
@@ -9470,7 +10458,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A19" s="3" t="s">
         <v>90</v>
       </c>
@@ -9486,7 +10474,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A20" s="3" t="s">
         <v>136</v>
       </c>
@@ -9502,7 +10490,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A21" s="3" t="s">
         <v>122</v>
       </c>
@@ -9518,7 +10506,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A22" s="3" t="s">
         <v>137</v>
       </c>
@@ -9534,7 +10522,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A23" s="3" t="s">
         <v>138</v>
       </c>
@@ -9550,7 +10538,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A24" s="3" t="s">
         <v>139</v>
       </c>
@@ -9566,7 +10554,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A25" s="3" t="s">
         <v>140</v>
       </c>
@@ -9582,7 +10570,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A26" s="3" t="s">
         <v>141</v>
       </c>
@@ -9598,7 +10586,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A27" s="3" t="s">
         <v>142</v>
       </c>
@@ -9614,7 +10602,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A28" s="3" t="s">
         <v>143</v>
       </c>
@@ -9630,7 +10618,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A29" s="3" t="s">
         <v>144</v>
       </c>
@@ -9646,7 +10634,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A30" s="5" t="s">
         <v>145</v>
       </c>
@@ -9662,7 +10650,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A31" s="3" t="s">
         <v>146</v>
       </c>
@@ -9678,7 +10666,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A32" s="3" t="s">
         <v>147</v>
       </c>
@@ -9694,7 +10682,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A33" s="3" t="s">
         <v>32</v>
       </c>
@@ -9710,7 +10698,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A34" s="3" t="s">
         <v>148</v>
       </c>
@@ -9726,7 +10714,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A35" s="5" t="s">
         <v>149</v>
       </c>
@@ -9742,7 +10730,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A36" s="3" t="s">
         <v>150</v>
       </c>
@@ -9758,7 +10746,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A37" s="3" t="s">
         <v>151</v>
       </c>
@@ -9774,7 +10762,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A38" s="5" t="s">
         <v>152</v>
       </c>
@@ -9790,7 +10778,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A39" s="5" t="s">
         <v>38</v>
       </c>
@@ -9806,7 +10794,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A40" s="3" t="s">
         <v>153</v>
       </c>
@@ -9822,7 +10810,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A41" s="3" t="s">
         <v>154</v>
       </c>
@@ -9838,7 +10826,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A42" s="5" t="s">
         <v>155</v>
       </c>
@@ -9854,7 +10842,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A43" s="3" t="s">
         <v>156</v>
       </c>
@@ -9870,7 +10858,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A44" s="3" t="s">
         <v>157</v>
       </c>
@@ -9886,7 +10874,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A45" s="3" t="s">
         <v>158</v>
       </c>
@@ -9902,7 +10890,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A46" s="3" t="s">
         <v>46</v>
       </c>
@@ -9918,7 +10906,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A47" s="3" t="s">
         <v>26</v>
       </c>
@@ -9934,7 +10922,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A48" s="3" t="s">
         <v>30</v>
       </c>
@@ -9950,7 +10938,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A49" s="5" t="s">
         <v>159</v>
       </c>
@@ -9966,7 +10954,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A50" s="5" t="s">
         <v>160</v>
       </c>
@@ -9982,7 +10970,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A51" s="3" t="s">
         <v>161</v>
       </c>
@@ -9998,7 +10986,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A52" s="5" t="s">
         <v>115</v>
       </c>
@@ -10014,7 +11002,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A53" s="5" t="s">
         <v>162</v>
       </c>
@@ -10030,7 +11018,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A54" s="5" t="s">
         <v>163</v>
       </c>
@@ -10046,7 +11034,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A55" s="5" t="s">
         <v>164</v>
       </c>
@@ -10062,7 +11050,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A56" s="5" t="s">
         <v>165</v>
       </c>
@@ -10078,7 +11066,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A57" s="5" t="s">
         <v>166</v>
       </c>
@@ -10094,7 +11082,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A58" s="5" t="s">
         <v>167</v>
       </c>
@@ -10110,7 +11098,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A59" s="5" t="s">
         <v>168</v>
       </c>
@@ -10126,7 +11114,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A60" s="5" t="s">
         <v>164</v>
       </c>
@@ -10142,7 +11130,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A61" s="5" t="s">
         <v>169</v>
       </c>
@@ -10158,7 +11146,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A62" s="3" t="s">
         <v>112</v>
       </c>
@@ -10174,7 +11162,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A63" s="5" t="s">
         <v>5</v>
       </c>
@@ -10190,7 +11178,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="64" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A64" s="5" t="s">
         <v>40</v>
       </c>
@@ -10206,7 +11194,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="65" spans="5:6" x14ac:dyDescent="0.3">
+    <row r="65" spans="5:6" x14ac:dyDescent="0.35">
       <c r="E65" s="5">
         <f>SUM(E2:E64)</f>
         <v>-156501.74</v>
@@ -10234,13 +11222,13 @@
       <selection activeCell="B29" sqref="B29"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="50.33203125" customWidth="1"/>
-    <col min="2" max="2" width="33.5546875" customWidth="1"/>
+    <col min="1" max="1" width="50.36328125" customWidth="1"/>
+    <col min="2" max="2" width="33.54296875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -10248,7 +11236,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>109</v>
       </c>
@@ -10264,7 +11252,7 @@
         <v>116000</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>111</v>
       </c>
@@ -10280,7 +11268,7 @@
         <v>112000</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>107</v>
       </c>
@@ -10296,7 +11284,7 @@
         <v>37500</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>97</v>
       </c>
@@ -10312,7 +11300,7 @@
         <v>359</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>34</v>
       </c>
@@ -10328,7 +11316,7 @@
         <v>347</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>93</v>
       </c>
@@ -10344,7 +11332,7 @@
         <v>92.28</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>170</v>
       </c>
@@ -10360,7 +11348,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>90</v>
       </c>
@@ -10376,7 +11364,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>171</v>
       </c>
@@ -10392,7 +11380,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>172</v>
       </c>
@@ -10408,7 +11396,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
         <v>80</v>
       </c>
@@ -10424,7 +11412,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
         <v>173</v>
       </c>
@@ -10440,7 +11428,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
         <v>119</v>
       </c>
@@ -10456,7 +11444,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
         <v>174</v>
       </c>
@@ -10472,7 +11460,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
         <v>175</v>
       </c>
@@ -10488,7 +11476,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
         <v>176</v>
       </c>
@@ -10504,7 +11492,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
         <v>177</v>
       </c>
@@ -10520,7 +11508,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
         <v>178</v>
       </c>
@@ -10536,7 +11524,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
         <v>179</v>
       </c>
@@ -10552,7 +11540,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
         <v>152</v>
       </c>
@@ -10568,7 +11556,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
         <v>46</v>
       </c>
@@ -10584,7 +11572,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
         <v>180</v>
       </c>
@@ -10600,7 +11588,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
         <v>181</v>
       </c>
@@ -10616,7 +11604,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
         <v>182</v>
       </c>
@@ -10632,7 +11620,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A26" t="s">
         <v>11</v>
       </c>
@@ -10648,7 +11636,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A27" t="s">
         <v>30</v>
       </c>
@@ -10664,7 +11652,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A28" t="s">
         <v>26</v>
       </c>
@@ -10680,7 +11668,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A29" t="s">
         <v>112</v>
       </c>
@@ -10696,7 +11684,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A30" t="s">
         <v>183</v>
       </c>
@@ -10712,7 +11700,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A31" t="s">
         <v>5</v>
       </c>
@@ -10728,7 +11716,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A32" t="s">
         <v>184</v>
       </c>
@@ -10744,7 +11732,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="5:6" x14ac:dyDescent="0.3">
+    <row r="33" spans="5:6" x14ac:dyDescent="0.35">
       <c r="E33" s="5">
         <f>SUM(E2:E32)</f>
         <v>-198989.52000000002</v>
@@ -10772,16 +11760,16 @@
       <selection activeCell="B30" sqref="B30"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="50.33203125" customWidth="1"/>
-    <col min="2" max="2" width="33.5546875" style="11" customWidth="1"/>
-    <col min="3" max="4" width="8.88671875" style="10" customWidth="1"/>
+    <col min="1" max="1" width="50.36328125" customWidth="1"/>
+    <col min="2" max="2" width="33.54296875" style="11" customWidth="1"/>
+    <col min="3" max="4" width="8.90625" style="10" customWidth="1"/>
     <col min="5" max="5" width="12" style="10" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="10.33203125" style="10" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.36328125" style="10" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A1" s="24" t="s">
         <v>0</v>
       </c>
@@ -10789,7 +11777,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A2" s="24" t="s">
         <v>111</v>
       </c>
@@ -10805,7 +11793,7 @@
         <v>36000</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A3" s="24" t="s">
         <v>107</v>
       </c>
@@ -10821,7 +11809,7 @@
         <v>32500</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A4" s="24" t="s">
         <v>109</v>
       </c>
@@ -10837,7 +11825,7 @@
         <v>22608</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A5" s="24" t="s">
         <v>97</v>
       </c>
@@ -10853,7 +11841,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A6" s="24" t="s">
         <v>93</v>
       </c>
@@ -10869,7 +11857,7 @@
         <v>99.23</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A7" s="12" t="s">
         <v>80</v>
       </c>
@@ -10885,7 +11873,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A8" s="24" t="s">
         <v>138</v>
       </c>
@@ -10901,7 +11889,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A9" s="12" t="s">
         <v>88</v>
       </c>
@@ -10917,7 +11905,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A10" s="12" t="s">
         <v>185</v>
       </c>
@@ -10933,7 +11921,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A11" s="24" t="s">
         <v>13</v>
       </c>
@@ -10949,7 +11937,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A12" s="12" t="s">
         <v>122</v>
       </c>
@@ -10965,7 +11953,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A13" s="24" t="s">
         <v>179</v>
       </c>
@@ -10981,7 +11969,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A14" s="24" t="s">
         <v>152</v>
       </c>
@@ -10997,7 +11985,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A15" s="14" t="s">
         <v>186</v>
       </c>
@@ -11013,7 +12001,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A16" s="14" t="s">
         <v>180</v>
       </c>
@@ -11029,7 +12017,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A17" s="12" t="s">
         <v>46</v>
       </c>
@@ -11045,7 +12033,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A18" s="24" t="s">
         <v>11</v>
       </c>
@@ -11061,7 +12049,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A19" s="24" t="s">
         <v>187</v>
       </c>
@@ -11077,7 +12065,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A20" s="24" t="s">
         <v>188</v>
       </c>
@@ -11093,7 +12081,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A21" s="24" t="s">
         <v>189</v>
       </c>
@@ -11109,7 +12097,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A22" s="12" t="s">
         <v>119</v>
       </c>
@@ -11125,7 +12113,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A23" s="12" t="s">
         <v>30</v>
       </c>
@@ -11141,7 +12129,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A24" s="8" t="s">
         <v>26</v>
       </c>
@@ -11157,7 +12145,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A25" s="24" t="s">
         <v>28</v>
       </c>
@@ -11173,7 +12161,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A26" s="12" t="s">
         <v>112</v>
       </c>
@@ -11189,7 +12177,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A27" s="24" t="s">
         <v>5</v>
       </c>
@@ -11205,7 +12193,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.35">
       <c r="E28" s="11">
         <f>SUM(E2:E27)</f>
         <v>-111759.72</v>
@@ -11215,7 +12203,7 @@
         <v>91458.23</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A29" s="24" t="s">
         <v>190</v>
       </c>
@@ -11226,7 +12214,7 @@
       <c r="E29" s="11"/>
       <c r="F29" s="11"/>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A30" s="24" t="s">
         <v>26</v>
       </c>
@@ -11237,7 +12225,7 @@
       <c r="E30" s="11"/>
       <c r="F30" s="11"/>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A31" s="24" t="s">
         <v>191</v>
       </c>
@@ -11248,11 +12236,11 @@
       <c r="E31" s="11"/>
       <c r="F31" s="11"/>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.35">
       <c r="E32" s="11"/>
       <c r="F32" s="11"/>
     </row>
-    <row r="33" spans="5:6" x14ac:dyDescent="0.3">
+    <row r="33" spans="5:6" x14ac:dyDescent="0.35">
       <c r="E33" s="11"/>
       <c r="F33" s="11"/>
     </row>
@@ -11274,15 +12262,15 @@
       <selection activeCell="B37" sqref="B37"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="56.5546875" customWidth="1"/>
-    <col min="2" max="2" width="11.6640625" style="10" customWidth="1"/>
+    <col min="1" max="1" width="56.54296875" customWidth="1"/>
+    <col min="2" max="2" width="11.6328125" style="10" customWidth="1"/>
     <col min="5" max="5" width="12" style="10" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="10.33203125" style="10" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.36328125" style="10" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A1" s="24" t="s">
         <v>0</v>
       </c>
@@ -11296,7 +12284,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>111</v>
       </c>
@@ -11312,7 +12300,7 @@
         <v>46500</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>109</v>
       </c>
@@ -11328,7 +12316,7 @@
         <v>41600</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>34</v>
       </c>
@@ -11344,7 +12332,7 @@
         <v>17500</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>194</v>
       </c>
@@ -11360,7 +12348,7 @@
         <v>1846</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>97</v>
       </c>
@@ -11376,7 +12364,7 @@
         <v>344</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>93</v>
       </c>
@@ -11392,7 +12380,7 @@
         <v>133.13</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>195</v>
       </c>
@@ -11408,7 +12396,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>196</v>
       </c>
@@ -11424,7 +12412,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>197</v>
       </c>
@@ -11440,7 +12428,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>198</v>
       </c>
@@ -11456,7 +12444,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
         <v>199</v>
       </c>
@@ -11472,7 +12460,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
         <v>200</v>
       </c>
@@ -11488,7 +12476,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
         <v>201</v>
       </c>
@@ -11504,7 +12492,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
         <v>202</v>
       </c>
@@ -11520,7 +12508,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
         <v>203</v>
       </c>
@@ -11536,7 +12524,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
         <v>204</v>
       </c>
@@ -11552,7 +12540,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
         <v>205</v>
       </c>
@@ -11568,7 +12556,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
         <v>122</v>
       </c>
@@ -11584,7 +12572,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
         <v>206</v>
       </c>
@@ -11600,7 +12588,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
         <v>32</v>
       </c>
@@ -11616,7 +12604,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
         <v>207</v>
       </c>
@@ -11632,7 +12620,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
         <v>186</v>
       </c>
@@ -11648,7 +12636,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
         <v>152</v>
       </c>
@@ -11664,7 +12652,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
         <v>208</v>
       </c>
@@ -11680,7 +12668,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A26" t="s">
         <v>179</v>
       </c>
@@ -11696,7 +12684,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A27" t="s">
         <v>209</v>
       </c>
@@ -11712,7 +12700,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A28" t="s">
         <v>30</v>
       </c>
@@ -11728,7 +12716,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A29" t="s">
         <v>210</v>
       </c>
@@ -11744,7 +12732,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A30" t="s">
         <v>211</v>
       </c>
@@ -11760,7 +12748,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A31" t="s">
         <v>26</v>
       </c>
@@ -11776,7 +12764,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A32" t="s">
         <v>28</v>
       </c>
@@ -11792,7 +12780,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A33" t="s">
         <v>112</v>
       </c>
@@ -11808,7 +12796,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A34" t="s">
         <v>5</v>
       </c>
@@ -11824,7 +12812,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A37" s="24" t="s">
         <v>190</v>
       </c>
@@ -11833,7 +12821,7 @@
         <v>-18669.28</v>
       </c>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A38" s="24" t="s">
         <v>26</v>
       </c>
@@ -11842,7 +12830,7 @@
         <v>-8800</v>
       </c>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A39" s="24" t="s">
         <v>191</v>
       </c>
@@ -11869,16 +12857,16 @@
       <selection activeCell="B39" sqref="B39"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="54.77734375" customWidth="1"/>
-    <col min="2" max="2" width="35.33203125" style="10" customWidth="1"/>
-    <col min="3" max="4" width="8.88671875" style="10" customWidth="1"/>
+    <col min="1" max="1" width="54.81640625" customWidth="1"/>
+    <col min="2" max="2" width="35.36328125" style="10" customWidth="1"/>
+    <col min="3" max="4" width="8.90625" style="10" customWidth="1"/>
     <col min="5" max="5" width="12" style="10" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="15" style="10" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -11892,7 +12880,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>111</v>
       </c>
@@ -11908,7 +12896,7 @@
         <v>93000</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>107</v>
       </c>
@@ -11924,7 +12912,7 @@
         <v>27500</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>109</v>
       </c>
@@ -11940,7 +12928,7 @@
         <v>27000</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>212</v>
       </c>
@@ -11956,7 +12944,7 @@
         <v>1475.96</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>213</v>
       </c>
@@ -11972,7 +12960,7 @@
         <v>851.25</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>97</v>
       </c>
@@ -11988,7 +12976,7 @@
         <v>353</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>95</v>
       </c>
@@ -12004,7 +12992,7 @@
         <v>221.55</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>93</v>
       </c>
@@ -12020,7 +13008,7 @@
         <v>50.74</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>197</v>
       </c>
@@ -12036,7 +13024,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>214</v>
       </c>
@@ -12052,7 +13040,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
         <v>198</v>
       </c>
@@ -12068,7 +13056,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
         <v>215</v>
       </c>
@@ -12084,7 +13072,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
         <v>11</v>
       </c>
@@ -12100,7 +13088,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
         <v>196</v>
       </c>
@@ -12116,7 +13104,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
         <v>216</v>
       </c>
@@ -12132,7 +13120,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
         <v>204</v>
       </c>
@@ -12148,7 +13136,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
         <v>217</v>
       </c>
@@ -12164,7 +13152,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
         <v>218</v>
       </c>
@@ -12180,7 +13168,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
         <v>152</v>
       </c>
@@ -12196,7 +13184,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
         <v>115</v>
       </c>
@@ -12212,7 +13200,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
         <v>46</v>
       </c>
@@ -12228,7 +13216,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
         <v>28</v>
       </c>
@@ -12244,7 +13232,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
         <v>219</v>
       </c>
@@ -12260,7 +13248,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
         <v>220</v>
       </c>
@@ -12276,7 +13264,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A26" t="s">
         <v>34</v>
       </c>
@@ -12292,7 +13280,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A27" t="s">
         <v>221</v>
       </c>
@@ -12308,7 +13296,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A28" t="s">
         <v>209</v>
       </c>
@@ -12324,7 +13312,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A29" t="s">
         <v>119</v>
       </c>
@@ -12340,7 +13328,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A30" t="s">
         <v>30</v>
       </c>
@@ -12356,7 +13344,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A31" t="s">
         <v>26</v>
       </c>
@@ -12372,7 +13360,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A32" t="s">
         <v>21</v>
       </c>
@@ -12388,7 +13376,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A33" t="s">
         <v>211</v>
       </c>
@@ -12404,7 +13392,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A34" t="s">
         <v>222</v>
       </c>
@@ -12420,7 +13408,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A35" t="s">
         <v>5</v>
       </c>
@@ -12436,7 +13424,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.35">
       <c r="E36" s="10">
         <f>SUM(E2:E35)</f>
         <v>-104036.39</v>
@@ -12446,7 +13434,7 @@
         <v>150452.49999999997</v>
       </c>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A38" s="24" t="s">
         <v>190</v>
       </c>
@@ -12455,7 +13443,7 @@
         <v>-23272.68</v>
       </c>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A39" s="24" t="s">
         <v>26</v>
       </c>
@@ -12464,7 +13452,7 @@
         <v>-4385.8</v>
       </c>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A40" s="24" t="s">
         <v>191</v>
       </c>

--- a/excel.xlsx
+++ b/excel.xlsx
@@ -26,6 +26,10 @@
     <sheet name="2023-08-01 - 2023-09-01" sheetId="18" state="visible" r:id="rId18"/>
     <sheet name="2023-09-01 - 2023-10-01" sheetId="19" state="visible" r:id="rId19"/>
     <sheet name="2023-10-01 - 2023-11-01" sheetId="20" state="visible" r:id="rId20"/>
+    <sheet name="2023-10-01 - 2023-11-011" sheetId="21" state="visible" r:id="rId21"/>
+    <sheet name="2023-10-01 - 2023-11-012" sheetId="22" state="visible" r:id="rId22"/>
+    <sheet name="2023-10-01 - 2023-11-013" sheetId="23" state="visible" r:id="rId23"/>
+    <sheet name="2023-10-01 - 2023-11-014" sheetId="24" state="visible" r:id="rId24"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Описание'!$A$1:$D$71</definedName>
@@ -10438,6 +10442,150 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:C1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>Описание</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>Сумма</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>Дата</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:C1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>Описание</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>Сумма</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>Дата</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:C1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>Описание</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>Сумма</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>Дата</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet24.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:C1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>Описание</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>Сумма</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>Дата</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
